--- a/模拟盘/SimulationTrading.xlsx
+++ b/模拟盘/SimulationTrading.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t>PP1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JM1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,11 +971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="461046752"/>
-        <c:axId val="461047312"/>
+        <c:axId val="463148896"/>
+        <c:axId val="463150016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461046752"/>
+        <c:axId val="463148896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,14 +1018,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461047312"/>
+        <c:crossAx val="463150016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461047312"/>
+        <c:axId val="463150016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1076,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461046752"/>
+        <c:crossAx val="463148896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1689,7 +1701,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2055,7 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!P1/成交记录!O1</f>
-        <v>0.12307692307692308</v>
+        <v>0.15492957746478872</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2062,7 +2074,7 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!R1/成交记录!S1</f>
-        <v>0.14403497724657555</v>
+        <v>0.35228062177465302</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2289,7 +2301,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2349,23 +2361,23 @@
       <c r="N1" s="13"/>
       <c r="O1" s="10">
         <f>COUNT(J2:J9984)</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P1" s="13">
         <f>COUNTIF(J2:J9984,"&gt;0")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="13">
         <f>COUNTIF(J2:J9984,"&lt;0")</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R1" s="13">
         <f>SUMIF(J2:J9984,"&gt;0")</f>
-        <v>70190.499999999971</v>
+        <v>181810.49999999997</v>
       </c>
       <c r="S1" s="13">
         <f>ABS(SUMIF(J2:J9984,"&lt;0"))</f>
-        <v>487315.66000000015</v>
+        <v>516095.66000000015</v>
       </c>
       <c r="T1" s="13"/>
     </row>
@@ -3772,12 +3784,18 @@
       <c r="F48" s="32">
         <v>2.3E-2</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="28" t="str">
+      <c r="G48" s="3">
+        <v>52700</v>
+      </c>
+      <c r="H48" s="33">
+        <v>43124</v>
+      </c>
+      <c r="I48" s="45">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="J48" s="28">
         <f t="shared" si="5"/>
-        <v/>
+        <v>54500</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="4"/>
@@ -3829,9 +3847,18 @@
       <c r="D50" s="1">
         <v>3886</v>
       </c>
-      <c r="J50" s="30" t="str">
+      <c r="G50" s="1">
+        <v>3835</v>
+      </c>
+      <c r="H50" s="2">
+        <v>43124</v>
+      </c>
+      <c r="I50" s="40">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="J50" s="30">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13770</v>
       </c>
       <c r="M50" s="11">
         <f>[1]!WSD($B50,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -4616,10 +4643,19 @@
       <c r="F76" s="34">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G76" s="24"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="30"/>
+      <c r="G76" s="24">
+        <v>13800</v>
+      </c>
+      <c r="H76" s="35">
+        <v>43124</v>
+      </c>
+      <c r="I76" s="47">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="J76" s="30">
+        <f t="shared" si="7"/>
+        <v>43350</v>
+      </c>
       <c r="K76" s="24"/>
       <c r="L76" s="36"/>
       <c r="M76" s="11">
@@ -5212,9 +5248,18 @@
       <c r="F91" s="31">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J91" s="30" t="str">
+      <c r="G91" s="1">
+        <v>98590</v>
+      </c>
+      <c r="H91" s="2">
+        <v>43124</v>
+      </c>
+      <c r="I91" s="40">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="J91" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-13020</v>
       </c>
       <c r="M91" s="11">
         <f>[1]!WSD($B91,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -5244,9 +5289,18 @@
       <c r="F92" s="31">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J92" s="30" t="str">
+      <c r="G92" s="1">
+        <v>9495</v>
+      </c>
+      <c r="H92" s="2">
+        <v>43124</v>
+      </c>
+      <c r="I92" s="40">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="J92" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-4060</v>
       </c>
       <c r="M92" s="11">
         <f>[1]!WSD($B92,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -5260,22 +5314,109 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
-      <c r="J93" s="30" t="str">
+    <row r="93" spans="1:15" ht="14.25">
+      <c r="B93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="1">
+        <v>30</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1294.5</v>
+      </c>
+      <c r="E93" s="40">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="F93" s="31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1288</v>
+      </c>
+      <c r="H93" s="2">
+        <v>43124</v>
+      </c>
+      <c r="I93" s="40">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="J93" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>-11700</v>
+      </c>
+      <c r="M93" s="11">
+        <f>[1]!WSD($B93,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="N93" s="53">
+        <v>9758012</v>
+      </c>
+      <c r="O93" s="24">
+        <f t="shared" ref="O93" si="25">N93*F93/(D93*M93*0.15)</f>
+        <v>29.31465774001116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="14.25">
+      <c r="B94" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="1">
+        <v>13</v>
+      </c>
+      <c r="D94" s="1">
+        <v>282.23</v>
+      </c>
+      <c r="E94" s="40">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="F94" s="31">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="J94" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="M94" s="11">
+        <f>[1]!WSD($B94,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="N94" s="53">
+        <v>9758013</v>
+      </c>
+      <c r="O94" s="24">
+        <f t="shared" ref="O94" si="26">N94*F94/(D94*M94*0.15)</f>
+        <v>138.29873507423022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="14.25">
+      <c r="B95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="1">
+        <v>-23</v>
+      </c>
+      <c r="D95" s="1">
+        <v>5226</v>
+      </c>
+      <c r="E95" s="40">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="F95" s="31">
+        <v>1.9E-2</v>
+      </c>
       <c r="J95" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
+      </c>
+      <c r="M95" s="11">
+        <f>[1]!WSD($B95,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="N95" s="53">
+        <v>9758014</v>
+      </c>
+      <c r="O95" s="24">
+        <f t="shared" ref="O95" si="27">N95*F95/(D95*M95*0.15)</f>
+        <v>23.651264957264956</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5574,1346 +5715,1346 @@
     </row>
     <row r="145" spans="10:10">
       <c r="J145" s="30" t="str">
-        <f t="shared" ref="J145:J208" si="25">IF(G145="","",C145*(G145-D145)*M145)</f>
+        <f t="shared" ref="J145:J208" si="28">IF(G145="","",C145*(G145-D145)*M145)</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="10:10">
       <c r="J146" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="10:10">
       <c r="J147" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="10:10">
       <c r="J148" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="10:10">
       <c r="J149" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="10:10">
       <c r="J150" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="10:10">
       <c r="J151" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="10:10">
       <c r="J152" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="10:10">
       <c r="J153" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="10:10">
       <c r="J154" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="10:10">
       <c r="J155" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="10:10">
       <c r="J156" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="10:10">
       <c r="J157" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="10:10">
       <c r="J158" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="10:10">
       <c r="J159" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="10:10">
       <c r="J160" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="10:10">
       <c r="J161" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="10:10">
       <c r="J162" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="10:10">
       <c r="J163" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="10:10">
       <c r="J164" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="10:10">
       <c r="J165" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="10:10">
       <c r="J166" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="10:10">
       <c r="J167" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="10:10">
       <c r="J168" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="10:10">
       <c r="J169" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="10:10">
       <c r="J170" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="10:10">
       <c r="J171" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="10:10">
       <c r="J172" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="10:10">
       <c r="J173" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="10:10">
       <c r="J174" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="10:10">
       <c r="J175" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="10:10">
       <c r="J176" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="10:10">
       <c r="J177" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="10:10">
       <c r="J178" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="10:10">
       <c r="J179" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="10:10">
       <c r="J180" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="10:10">
       <c r="J181" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="10:10">
       <c r="J182" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="10:10">
       <c r="J183" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="10:10">
       <c r="J184" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="10:10">
       <c r="J185" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="10:10">
       <c r="J186" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="10:10">
       <c r="J187" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="10:10">
       <c r="J188" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="10:10">
       <c r="J189" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="10:10">
       <c r="J190" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="10:10">
       <c r="J191" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="10:10">
       <c r="J192" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="10:10">
       <c r="J196" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="10:10">
       <c r="J197" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="10:10">
       <c r="J198" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="10:10">
       <c r="J199" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="10:10">
       <c r="J200" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="10:10">
       <c r="J201" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="10:10">
       <c r="J202" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="10:10">
       <c r="J203" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="10:10">
       <c r="J204" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="10:10">
       <c r="J205" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="10:10">
       <c r="J206" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="10:10">
       <c r="J207" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="10:10">
       <c r="J208" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="10:10">
       <c r="J209" s="30" t="str">
-        <f t="shared" ref="J209:J272" si="26">IF(G209="","",C209*(G209-D209)*M209)</f>
+        <f t="shared" ref="J209:J272" si="29">IF(G209="","",C209*(G209-D209)*M209)</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="10:10">
       <c r="J210" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="10:10">
       <c r="J211" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="10:10">
       <c r="J212" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="10:10">
       <c r="J213" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="10:10">
       <c r="J214" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="10:10">
       <c r="J215" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="10:10">
       <c r="J216" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="10:10">
       <c r="J217" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="10:10">
       <c r="J218" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="10:10">
       <c r="J219" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="10:10">
       <c r="J220" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="10:10">
       <c r="J221" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="10:10">
       <c r="J222" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="10:10">
       <c r="J223" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="10:10">
       <c r="J224" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="10:10">
       <c r="J225" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="10:10">
       <c r="J226" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="10:10">
       <c r="J227" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="10:10">
       <c r="J228" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="10:10">
       <c r="J229" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="10:10">
       <c r="J230" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="10:10">
       <c r="J231" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="10:10">
       <c r="J232" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="10:10">
       <c r="J233" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="10:10">
       <c r="J234" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="10:10">
       <c r="J235" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="10:10">
       <c r="J236" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="10:10">
       <c r="J237" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="10:10">
       <c r="J238" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="10:10">
       <c r="J239" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="10:10">
       <c r="J240" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="10:10">
       <c r="J241" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="10:10">
       <c r="J242" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="10:10">
       <c r="J243" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="10:10">
       <c r="J244" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="10:10">
       <c r="J245" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="10:10">
       <c r="J246" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="10:10">
       <c r="J247" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="10:10">
       <c r="J248" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="10:10">
       <c r="J249" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="10:10">
       <c r="J250" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="10:10">
       <c r="J251" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="10:10">
       <c r="J252" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="10:10">
       <c r="J253" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="10:10">
       <c r="J254" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="10:10">
       <c r="J255" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="10:10">
       <c r="J256" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="10:10">
       <c r="J257" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="10:10">
       <c r="J258" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="10:10">
       <c r="J259" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="10:10">
       <c r="J260" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="10:10">
       <c r="J261" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="10:10">
       <c r="J262" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="10:10">
       <c r="J263" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="10:10">
       <c r="J264" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="10:10">
       <c r="J265" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="10:10">
       <c r="J266" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="10:10">
       <c r="J267" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="10:10">
       <c r="J268" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="10:10">
       <c r="J269" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="10:10">
       <c r="J270" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="10:10">
       <c r="J271" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="10:10">
       <c r="J272" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="10:10">
       <c r="J273" s="30" t="str">
-        <f t="shared" ref="J273:J336" si="27">IF(G273="","",C273*(G273-D273)*M273)</f>
+        <f t="shared" ref="J273:J336" si="30">IF(G273="","",C273*(G273-D273)*M273)</f>
         <v/>
       </c>
     </row>
     <row r="274" spans="10:10">
       <c r="J274" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="10:10">
       <c r="J275" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="10:10">
       <c r="J276" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="10:10">
       <c r="J277" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="10:10">
       <c r="J278" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="10:10">
       <c r="J279" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="10:10">
       <c r="J280" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="10:10">
       <c r="J281" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="10:10">
       <c r="J282" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="10:10">
       <c r="J283" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="10:10">
       <c r="J284" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="10:10">
       <c r="J285" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="10:10">
       <c r="J286" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="10:10">
       <c r="J287" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="10:10">
       <c r="J288" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="10:10">
       <c r="J289" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="10:10">
       <c r="J290" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="10:10">
       <c r="J291" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="10:10">
       <c r="J292" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="10:10">
       <c r="J293" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="10:10">
       <c r="J294" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="10:10">
       <c r="J295" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="10:10">
       <c r="J296" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="10:10">
       <c r="J297" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="10:10">
       <c r="J298" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="10:10">
       <c r="J299" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="10:10">
       <c r="J300" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="10:10">
       <c r="J301" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="10:10">
       <c r="J302" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="10:10">
       <c r="J303" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="10:10">
       <c r="J304" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="10:10">
       <c r="J305" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="10:10">
       <c r="J306" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="10:10">
       <c r="J307" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="10:10">
       <c r="J308" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="10:10">
       <c r="J309" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="10:10">
       <c r="J310" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="10:10">
       <c r="J311" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="10:10">
       <c r="J312" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="10:10">
       <c r="J313" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="10:10">
       <c r="J314" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="10:10">
       <c r="J315" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="10:10">
       <c r="J316" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="10:10">
       <c r="J317" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="10:10">
       <c r="J318" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="10:10">
       <c r="J319" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="10:10">
       <c r="J320" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="10:10">
       <c r="J321" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="10:10">
       <c r="J322" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="10:10">
       <c r="J323" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="10:10">
       <c r="J324" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="10:10">
       <c r="J325" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="10:10">
       <c r="J326" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="10:10">
       <c r="J327" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="10:10">
       <c r="J328" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="10:10">
       <c r="J329" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="10:10">
       <c r="J330" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="10:10">
       <c r="J331" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="10:10">
       <c r="J332" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="10:10">
       <c r="J333" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="10:10">
       <c r="J334" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="10:10">
       <c r="J335" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="10:10">
       <c r="J336" s="30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="10:10">
       <c r="J337" s="30" t="str">
-        <f t="shared" ref="J337:J367" si="28">IF(G337="","",C337*(G337-D337)*M337)</f>
+        <f t="shared" ref="J337:J367" si="31">IF(G337="","",C337*(G337-D337)*M337)</f>
         <v/>
       </c>
     </row>
     <row r="338" spans="10:10">
       <c r="J338" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="10:10">
       <c r="J339" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="10:10">
       <c r="J340" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="10:10">
       <c r="J341" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="10:10">
       <c r="J342" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="10:10">
       <c r="J343" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="10:10">
       <c r="J344" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="10:10">
       <c r="J345" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="10:10">
       <c r="J346" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="10:10">
       <c r="J347" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="10:10">
       <c r="J348" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="10:10">
       <c r="J349" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="10:10">
       <c r="J350" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="10:10">
       <c r="J351" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="10:10">
       <c r="J352" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="10:10">
       <c r="J353" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="10:10">
       <c r="J354" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="10:10">
       <c r="J355" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="10:10">
       <c r="J356" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="10:10">
       <c r="J357" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="10:10">
       <c r="J358" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="10:10">
       <c r="J359" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="10:10">
       <c r="J360" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="10:10">
       <c r="J361" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="10:10">
       <c r="J362" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="10:10">
       <c r="J363" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="10:10">
       <c r="J364" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="10:10">
       <c r="J365" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="10:10">
       <c r="J366" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="10:10">
       <c r="J367" s="30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/模拟盘/SimulationTrading.xlsx
+++ b/模拟盘/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -454,7 +454,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -956,7 +956,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1701,7 +1701,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,17 +2013,17 @@
       <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -2055,10 +2055,10 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!P1/成交记录!O1</f>
-        <v>0.15492957746478872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -2074,10 +2074,10 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!R1/成交记录!S1</f>
-        <v>0.35228062177465302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.37741733016446138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -2089,85 +2089,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -2239,49 +2239,49 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
       <c r="B26" s="55"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -2300,28 +2300,28 @@
   <dimension ref="A1:T367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="13" max="13" width="10.875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2361,27 +2361,27 @@
       <c r="N1" s="13"/>
       <c r="O1" s="10">
         <f>COUNT(J2:J9984)</f>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="P1" s="13">
         <f>COUNTIF(J2:J9984,"&gt;0")</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="13">
         <f>COUNTIF(J2:J9984,"&lt;0")</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R1" s="13">
         <f>SUMIF(J2:J9984,"&gt;0")</f>
-        <v>181810.49999999997</v>
+        <v>158640</v>
       </c>
       <c r="S1" s="13">
         <f>ABS(SUMIF(J2:J9984,"&lt;0"))</f>
-        <v>516095.66000000015</v>
+        <v>420330.4600000002</v>
       </c>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20" ht="14.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -2404,17 +2404,17 @@
         <v>43096</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="30">
+      <c r="J2" s="30" t="e">
         <f>IF(G2="","",C2*(G2-D2)*M2)</f>
-        <v>-13980.199999999995</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K2" s="1">
         <f>H2-$A$2</f>
         <v>2</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="11" t="str">
         <f>[1]!WSD($B2,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="14"/>
@@ -2423,7 +2423,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" spans="1:20" ht="14.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2445,17 +2445,17 @@
         <v>43096</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="30">
+      <c r="J3" s="30" t="e">
         <f>IF(G3="","",C3*(G3-D3)*M3)</f>
-        <v>4270.4999999999882</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K3" s="1">
         <f>H3-$A$2</f>
         <v>2</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="11" t="str">
         <f>[1]!WSD($B3,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
@@ -2464,7 +2464,7 @@
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" spans="1:20" ht="14.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2480,9 +2480,9 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="J4" s="30"/>
-      <c r="M4" s="11">
+      <c r="M4" s="11" t="str">
         <f>[1]!WSD($B4,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="14"/>
@@ -2491,7 +2491,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="1:20" ht="14.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -2513,17 +2513,17 @@
         <v>43096</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="30">
+      <c r="J5" s="30" t="e">
         <f t="shared" ref="J5:J20" si="0">IF(G5="","",C5*(G5-D5)*M5)</f>
-        <v>6059.9999999999909</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K5" s="1">
         <f>H5-$A$2</f>
         <v>2</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="11" t="str">
         <f>[1]!WSD($B5,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="14"/>
@@ -2532,7 +2532,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -2554,13 +2554,13 @@
         <v>43096</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="30">
+      <c r="J6" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>12839.999999999985</v>
-      </c>
-      <c r="M6" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="11" t="str">
         <f>[1]!WSD($B6,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="14"/>
@@ -2569,7 +2569,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2592,17 +2592,17 @@
         <v>43095</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="30">
+      <c r="J7" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>-24800</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ref="K7" si="1">H7-$A$2</f>
         <v>1</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="11" t="str">
         <f>[1]!WSD($B7,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="14"/>
@@ -2611,7 +2611,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -2634,17 +2634,17 @@
         <v>43095</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="30">
+      <c r="J8" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>-30625</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K8" s="1">
         <f>H8-$A$8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="11" t="str">
         <f>[1]!WSD($B8,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="14"/>
@@ -2653,7 +2653,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2674,13 +2674,13 @@
         <v>43096</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="30">
+      <c r="J9" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>-11600</v>
-      </c>
-      <c r="M9" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="11" t="str">
         <f>[1]!WSD($B9,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="14"/>
@@ -2689,7 +2689,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="14.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,20 +2710,20 @@
         <v>43095</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="30">
+      <c r="J10" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>-3330</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10:K11" si="2">H10-$A$8</f>
         <v>0</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="11" t="str">
         <f>[1]!WSD($B10,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="14.25">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -2744,27 +2744,27 @@
         <v>43095</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="30">
+      <c r="J11" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>-5040</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="11" t="str">
         <f>[1]!WSD($B11,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="N11">
         <v>9920000</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="1" t="e">
         <f>N11*F11/(D11*M11*0.15)</f>
-        <v>34.564459930313589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="14.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -2787,27 +2787,27 @@
         <v>43096</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="30">
+      <c r="J12" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>-2250</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K12" s="1">
         <f>H12-$A$12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="11" t="str">
         <f>[1]!WSD($B12,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="N12">
         <v>9913478</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="1" t="e">
         <f>N12*F12/(D12*M12*0.15)</f>
-        <v>46.739641678453552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="14.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2827,24 +2827,24 @@
         <v>43096</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="30">
+      <c r="J13" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>-4140</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ref="K13" si="3">H13-$A$12</f>
         <v>0</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="11" t="str">
         <f>[1]!WSD($B13,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
-      </c>
-      <c r="O13" s="1">
+        <v/>
+      </c>
+      <c r="O13" s="1" t="e">
         <f t="shared" ref="O13:O16" si="4">N13*F13/(D13*M13*0.15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="14.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -2862,16 +2862,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="11" t="str">
         <f>[1]!WSD($B14,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
-      </c>
-      <c r="O14" s="1">
+        <v/>
+      </c>
+      <c r="O14" s="1" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -2889,19 +2889,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="11" t="str">
         <f>[1]!WSD($B15,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="N15">
         <v>9918000</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="1" t="e">
         <f t="shared" si="4"/>
-        <v>50.205011389521637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2918,16 +2918,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="11" t="str">
         <f>[1]!WSD($B16,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>100</v>
-      </c>
-      <c r="O16" s="1">
+        <v/>
+      </c>
+      <c r="O16" s="1" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -3138,7 +3138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>60</v>
@@ -3156,7 +3156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43103</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="14.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43104</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43105</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43108</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43109</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43110</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>43111</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="N33" s="36"/>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="14.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>43112</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1">
+    <row r="35" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="52"/>
       <c r="B35" s="48" t="s">
         <v>55</v>
@@ -3350,7 +3350,7 @@
       <c r="N35" s="36"/>
       <c r="O35" s="24"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43115</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="24"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>42</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="N37" s="36"/>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
         <v>43</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="N38" s="36"/>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="1:15" ht="14.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
         <v>36</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="14.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>37</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>35</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="14.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
         <v>32</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="14.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>38</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="14.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="30" t="s">
         <v>39</v>
@@ -3667,7 +3667,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="14.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>40</v>
@@ -3702,7 +3702,7 @@
       <c r="N45" s="36"/>
       <c r="O45" s="24"/>
     </row>
-    <row r="46" spans="1:15" ht="14.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43116</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="N46" s="36"/>
       <c r="O46" s="24"/>
     </row>
-    <row r="47" spans="1:15" ht="14.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="N47" s="36"/>
       <c r="O47" s="24"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>40</v>
@@ -3806,7 +3806,7 @@
       <c r="N48" s="36"/>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43117</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="N49" s="36"/>
       <c r="O49" s="24"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
@@ -3867,7 +3867,7 @@
       <c r="N50" s="36"/>
       <c r="O50" s="24"/>
     </row>
-    <row r="51" spans="1:15" ht="14.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="N51" s="36"/>
       <c r="O51" s="24"/>
     </row>
-    <row r="52" spans="1:15" ht="14.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>42</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>49</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>52</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="14.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>53</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="14.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>56</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>56</v>
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43118</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="14.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="14.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>42</v>
@@ -4458,7 +4458,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43119</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>19</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="14.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>58</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="14.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>59</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B76" s="24" t="s">
         <v>19</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1">
+    <row r="77" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="48"/>
       <c r="B77" s="48" t="s">
         <v>89</v>
@@ -4714,7 +4714,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="14.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43122</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="14.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>92</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="14.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>93</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>94</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="14.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>95</v>
@@ -4909,7 +4909,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="14.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43123</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>97</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>98</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="14.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>96</v>
@@ -5070,7 +5070,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="14.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43124</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="14.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>102</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="14.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>102</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="14.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>103</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="14.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>103</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="14.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>104</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>105</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>106</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>138.29873507423022</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>107</v>
       </c>
@@ -5419,1635 +5419,1713 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="1">
+        <v>16</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2287</v>
+      </c>
+      <c r="E96" s="40">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="F96" s="31">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="J96" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="10:10">
+      <c r="M96" s="11">
+        <f>[1]!WSD($B96,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="N96" s="53">
+        <v>9758015</v>
+      </c>
+      <c r="O96" s="24">
+        <f t="shared" ref="O96" si="28">N96*F96/(D96*M96*0.15)</f>
+        <v>48.356290628188312</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="1">
+        <v>12</v>
+      </c>
+      <c r="D97" s="1">
+        <v>99710</v>
+      </c>
+      <c r="E97" s="40">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="F97" s="31">
+        <v>3.6999999999999998E-2</v>
+      </c>
       <c r="J97" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="10:10">
+      <c r="M97" s="11">
+        <f>[1]!WSD($B97,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>1</v>
+      </c>
+      <c r="N97" s="53">
+        <v>9758016</v>
+      </c>
+      <c r="O97" s="24">
+        <f t="shared" ref="O97" si="29">N97*F97/(D97*M97*0.15)</f>
+        <v>24.139778156654298</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1">
+        <v>15</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1290</v>
+      </c>
+      <c r="E98" s="40">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="F98" s="31">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="J98" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="10:10">
+      <c r="M98" s="11">
+        <f>[1]!WSD($B98,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="N98" s="53">
+        <v>9758017</v>
+      </c>
+      <c r="O98" s="24">
+        <f t="shared" ref="O98" si="30">N98*F98/(D98*M98*0.15)</f>
+        <v>29.416933247200692</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J99" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J100" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J101" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J102" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J103" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J104" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:10">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J105" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:10">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J106" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:10">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J107" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:10">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J108" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:10">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J109" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:10">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J110" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:10">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J111" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:10">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J112" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="30" t="str">
-        <f t="shared" ref="J145:J208" si="28">IF(G145="","",C145*(G145-D145)*M145)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="10:10">
+        <f t="shared" ref="J145:J208" si="31">IF(G145="","",C145*(G145-D145)*M145)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J183" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J184" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J185" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J186" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J187" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J188" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J189" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J190" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J191" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J192" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J193" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J194" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J195" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J196" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J197" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J198" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J199" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J200" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J201" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J202" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J203" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J204" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J205" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J206" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J207" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J208" s="30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="10:10">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J209" s="30" t="str">
-        <f t="shared" ref="J209:J272" si="29">IF(G209="","",C209*(G209-D209)*M209)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="10:10">
+        <f t="shared" ref="J209:J272" si="32">IF(G209="","",C209*(G209-D209)*M209)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J210" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J211" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J212" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J213" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J214" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J215" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J216" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J217" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J218" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J219" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J220" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J221" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J222" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J223" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J224" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J225" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J226" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J227" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J228" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J229" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J230" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J231" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J232" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J233" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J234" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J235" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J236" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J237" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J238" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J239" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J240" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J241" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J242" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J243" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J244" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J245" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J246" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J247" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J248" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J249" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J250" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J251" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J252" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J253" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J254" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J255" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J256" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J257" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J258" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J259" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J260" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J261" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J262" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J263" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J264" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J265" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J266" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J267" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J268" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J269" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J270" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J271" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J272" s="30" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="10:10">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J273" s="30" t="str">
-        <f t="shared" ref="J273:J336" si="30">IF(G273="","",C273*(G273-D273)*M273)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="10:10">
+        <f t="shared" ref="J273:J336" si="33">IF(G273="","",C273*(G273-D273)*M273)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J274" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J275" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J276" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J277" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J278" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J279" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J280" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J281" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J282" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J283" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J284" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J285" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J286" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J287" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J288" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J289" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J290" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J291" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J292" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J293" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J294" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J295" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J296" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J297" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J298" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J299" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J300" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J301" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J302" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J303" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J304" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J305" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J306" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J307" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J308" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J309" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J310" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J311" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J312" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J313" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J314" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J315" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J316" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J317" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J318" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J319" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J320" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J321" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J322" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J323" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J324" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J325" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J326" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J327" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J328" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J329" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J330" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J331" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J332" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J333" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J334" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J335" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J336" s="30" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="10:10">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J337" s="30" t="str">
-        <f t="shared" ref="J337:J367" si="31">IF(G337="","",C337*(G337-D337)*M337)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="10:10">
+        <f t="shared" ref="J337:J367" si="34">IF(G337="","",C337*(G337-D337)*M337)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J338" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J339" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J340" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J341" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J342" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J343" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J344" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J345" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J346" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J347" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J348" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J349" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J350" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J351" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J352" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J353" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J354" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J355" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J356" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J357" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J358" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J359" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J360" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J361" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J362" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J363" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J364" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J365" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J366" s="30" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="10:10">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J367" s="30" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -7067,17 +7145,17 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7102,7 +7180,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -7125,7 +7203,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -7145,7 +7223,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -7165,7 +7243,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -7188,7 +7266,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -7211,7 +7289,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -7231,7 +7309,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -7251,7 +7329,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -7274,7 +7352,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -7297,7 +7375,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -7317,7 +7395,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -7337,7 +7415,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -7357,7 +7435,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>30</v>
@@ -7395,15 +7473,15 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -7435,7 +7513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -7465,7 +7543,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -7495,7 +7573,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -7525,7 +7603,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -7555,7 +7633,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -7585,7 +7663,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -7615,7 +7693,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -7645,7 +7723,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -7675,7 +7753,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -7705,7 +7783,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -7735,7 +7813,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -7765,7 +7843,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -7792,7 +7870,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -7819,7 +7897,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -7846,7 +7924,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -7873,7 +7951,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -7900,7 +7978,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -7927,7 +8005,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -7954,7 +8032,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -7981,7 +8059,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -8008,7 +8086,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -8035,7 +8113,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -8062,7 +8140,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -8089,7 +8167,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -8116,7 +8194,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -8143,7 +8221,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -8170,7 +8248,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -8197,7 +8275,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -8224,7 +8302,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -8251,7 +8329,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -8278,7 +8356,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -8305,7 +8383,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -8332,7 +8410,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -8359,7 +8437,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -8386,7 +8464,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -8413,7 +8491,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -8440,7 +8518,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -8467,7 +8545,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -8494,7 +8572,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -8521,7 +8599,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -8548,7 +8626,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -8575,7 +8653,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -8602,7 +8680,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -8629,7 +8707,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -8656,31 +8734,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/模拟盘/SimulationTrading.xlsx
+++ b/模拟盘/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -512,7 +512,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,7 +806,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -820,7 +820,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1027,7 +1026,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1197,7 +1196,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1274,6 +1273,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2570,7 +2574,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2607,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2912,17 +2922,17 @@
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +2948,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -2957,7 +2967,7 @@
         <v>0.21249999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -2976,7 +2986,7 @@
         <v>0.53298765216965482</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -2988,85 +2998,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3090,7 +3100,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3102,7 +3112,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3114,7 +3124,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3126,7 +3136,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3138,7 +3148,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3150,7 +3160,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3162,7 +3172,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3174,34 +3184,34 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
       <c r="B26" s="55"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3219,29 +3229,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U368"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="14" max="14" width="10.875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3314,7 @@
       </c>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3346,7 +3356,7 @@
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
     </row>
-    <row r="3" spans="1:21" ht="14.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3387,7 +3397,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3414,7 +3424,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:21" ht="14.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -3455,7 +3465,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3492,7 +3502,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3544,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -3576,7 +3586,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3613,7 +3623,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3648,7 +3658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -3689,7 +3699,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -3732,7 +3742,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3769,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -3796,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -3826,7 +3836,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3889,7 +3899,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3913,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -3953,7 +3963,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -3993,7 +4003,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -4015,7 +4025,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4044,7 +4054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -4063,7 +4073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>60</v>
@@ -4081,7 +4091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4121,7 +4131,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43103</v>
       </c>
@@ -4130,7 +4140,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43104</v>
       </c>
@@ -4139,7 +4149,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43105</v>
       </c>
@@ -4148,7 +4158,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43108</v>
       </c>
@@ -4157,7 +4167,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43109</v>
       </c>
@@ -4166,7 +4176,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43110</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>43111</v>
       </c>
@@ -4229,7 +4239,7 @@
       <c r="O33" s="36"/>
       <c r="P33" s="24"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>43112</v>
       </c>
@@ -4266,7 +4276,7 @@
       <c r="O34" s="36"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16" ht="15" thickBot="1">
+    <row r="35" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="52"/>
       <c r="B35" s="48" t="s">
         <v>55</v>
@@ -4300,7 +4310,7 @@
       <c r="O35" s="36"/>
       <c r="P35" s="24"/>
     </row>
-    <row r="36" spans="1:16" ht="14.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43115</v>
       </c>
@@ -4332,7 +4342,7 @@
       <c r="O36" s="36"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>42</v>
       </c>
@@ -4361,7 +4371,7 @@
       <c r="O37" s="36"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
         <v>43</v>
       </c>
@@ -4394,7 +4404,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="24"/>
     </row>
-    <row r="39" spans="1:16" ht="14.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
         <v>36</v>
       </c>
@@ -4430,7 +4440,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>37</v>
       </c>
@@ -4466,7 +4476,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>35</v>
       </c>
@@ -4506,7 +4516,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
         <v>32</v>
       </c>
@@ -4542,7 +4552,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>38</v>
       </c>
@@ -4578,7 +4588,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="30" t="s">
         <v>39</v>
@@ -4619,7 +4629,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>40</v>
@@ -4655,7 +4665,7 @@
       <c r="O45" s="36"/>
       <c r="P45" s="24"/>
     </row>
-    <row r="46" spans="1:16" ht="14.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43116</v>
       </c>
@@ -4691,7 +4701,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="24"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
@@ -4722,7 +4732,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="24"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>40</v>
@@ -4760,7 +4770,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16" ht="14.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43117</v>
       </c>
@@ -4791,7 +4801,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="24"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
@@ -4821,7 +4831,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4848,7 +4858,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4873,7 +4883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="14.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4898,7 +4908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
@@ -4926,7 +4936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="14.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4952,7 +4962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="14.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4977,7 +4987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="14.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -5003,7 +5013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="14.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
@@ -5058,7 +5068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>42</v>
       </c>
@@ -5086,7 +5096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="14.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>49</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>52</v>
       </c>
@@ -5141,7 +5151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
@@ -5169,7 +5179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>53</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="14.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
@@ -5221,7 +5231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>56</v>
       </c>
@@ -5272,7 +5282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>56</v>
@@ -5305,7 +5315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43118</v>
       </c>
@@ -5347,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>48</v>
       </c>
@@ -5384,7 +5394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>42</v>
@@ -5431,7 +5441,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43119</v>
       </c>
@@ -5478,7 +5488,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>19</v>
       </c>
@@ -5524,7 +5534,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>58</v>
       </c>
@@ -5568,7 +5578,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>59</v>
       </c>
@@ -5612,7 +5622,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="24" t="s">
         <v>19</v>
       </c>
@@ -5658,7 +5668,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" thickBot="1">
+    <row r="77" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="48"/>
       <c r="B77" s="48" t="s">
         <v>89</v>
@@ -5705,7 +5715,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="14.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43122</v>
       </c>
@@ -5752,7 +5762,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="14.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>92</v>
       </c>
@@ -5796,7 +5806,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="14.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="24" t="s">
         <v>93</v>
       </c>
@@ -5842,7 +5852,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="14.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>94</v>
       </c>
@@ -5886,7 +5896,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="14.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>95</v>
@@ -5924,7 +5934,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="14.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43123</v>
       </c>
@@ -5971,7 +5981,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="14.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>97</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="14.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>98</v>
       </c>
@@ -6059,7 +6069,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="14.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="24" t="s">
         <v>96</v>
@@ -6106,7 +6116,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="14.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>107</v>
@@ -6153,7 +6163,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="14.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43124</v>
       </c>
@@ -6202,7 +6212,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>101</v>
       </c>
@@ -6247,7 +6257,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="14.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>101</v>
       </c>
@@ -6292,7 +6302,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="14.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>102</v>
       </c>
@@ -6336,7 +6346,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="14.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
@@ -6380,7 +6390,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="14.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>103</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="14.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>104</v>
       </c>
@@ -6468,7 +6478,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="14.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>105</v>
       </c>
@@ -6512,7 +6522,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="14.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>106</v>
@@ -6559,7 +6569,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="14.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43125</v>
       </c>
@@ -6598,7 +6608,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="14.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>32</v>
       </c>
@@ -6634,7 +6644,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="14.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>60</v>
       </c>
@@ -6675,7 +6685,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="14.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>108</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="14.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>109</v>
       </c>
@@ -6747,7 +6757,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="14.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>110</v>
       </c>
@@ -6783,7 +6793,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="14.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>111</v>
       </c>
@@ -6819,7 +6829,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="14.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>112</v>
       </c>
@@ -6854,7 +6864,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="14.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>114</v>
       </c>
@@ -6899,7 +6909,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="14.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>116</v>
       </c>
@@ -6935,7 +6945,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="14.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>117</v>
       </c>
@@ -6970,29 +6980,35 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="14.25">
-      <c r="B108" s="1" t="s">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="3">
         <v>-1</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="3">
         <v>95.83</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="33">
         <v>43125</v>
       </c>
-      <c r="F108" s="40">
+      <c r="F108" s="45">
         <v>0.47152777777777777</v>
       </c>
-      <c r="G108" s="31">
+      <c r="G108" s="32">
         <v>0.02</v>
       </c>
-      <c r="K108" s="30" t="str">
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="28" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
+      <c r="L108" s="3"/>
+      <c r="M108" s="4"/>
       <c r="N108" s="11">
         <f>[1]!WSD($B108,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10000</v>
@@ -7005,1563 +7021,1590 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2055.5</v>
+      </c>
+      <c r="G109" s="31">
+        <f>4.3%*1/2</f>
+        <v>2.1499999999999998E-2</v>
+      </c>
       <c r="K109" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="N109" s="11">
+        <f>[1]!WSD($B109,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="O109" s="53">
+        <v>9800003</v>
+      </c>
+      <c r="P109" s="24">
+        <f t="shared" ref="P109" si="41">O109*G109/(D109*N109*0.15)</f>
+        <v>6.8337003000081076</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K110" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K111" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K112" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="11:11">
+    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K113" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="11:11">
+    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K114" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="11:11">
+    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K115" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="11:11">
+    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K116" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="11:11">
+    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K117" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="11:11">
+    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K118" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="11:11">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K119" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="11:11">
+    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K120" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="11:11">
+    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K121" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="11:11">
+    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K122" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="11:11">
+    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K123" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="11:11">
+    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K124" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="11:11">
+    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K125" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="11:11">
+    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K126" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="11:11">
+    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K127" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="11:11">
+    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K128" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="11:11">
+    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K129" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="11:11">
+    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K130" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="11:11">
+    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K131" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="11:11">
+    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K132" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="11:11">
+    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K133" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="11:11">
+    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K134" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="11:11">
+    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K135" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="11:11">
+    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K136" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="11:11">
+    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K137" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="11:11">
+    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K138" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="11:11">
+    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K139" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="11:11">
+    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K140" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="11:11">
+    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K141" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="11:11">
+    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K142" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="11:11">
+    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K143" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="11:11">
+    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K144" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="11:11">
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K145" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="11:11">
+    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K146" s="30" t="str">
-        <f t="shared" ref="K146:K209" si="41">IF(H146="","",C146*(H146-D146)*N146)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="11:11">
+        <f t="shared" ref="K146:K209" si="42">IF(H146="","",C146*(H146-D146)*N146)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K147" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K148" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K149" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K150" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K151" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K152" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K153" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K154" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K155" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K156" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K157" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K158" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K159" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K160" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K161" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K162" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K163" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K164" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K165" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K166" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K167" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K168" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K169" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K170" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K171" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K172" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K173" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K174" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K175" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K176" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K177" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K178" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K179" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K180" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K181" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K182" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K183" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K184" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K185" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K186" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K187" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K188" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K189" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K190" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K191" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K192" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K193" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K194" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K195" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K196" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K197" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K198" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K199" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K200" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K201" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K202" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K203" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K204" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K205" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K206" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K207" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K208" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K209" s="30" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="11:11">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K210" s="30" t="str">
-        <f t="shared" ref="K210:K273" si="42">IF(H210="","",C210*(H210-D210)*N210)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="11:11">
+        <f t="shared" ref="K210:K273" si="43">IF(H210="","",C210*(H210-D210)*N210)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K211" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K212" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K213" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K214" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K215" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K216" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K217" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K218" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K219" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K220" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K221" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K222" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K223" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K224" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K225" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K226" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K227" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K228" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K229" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K230" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K231" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K232" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K233" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K234" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K235" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K236" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K237" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K238" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K239" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K240" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K241" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K242" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K243" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K244" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K245" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K246" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K247" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K248" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K249" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K250" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K251" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K252" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K253" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K254" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K255" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K256" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K257" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K258" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K259" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K260" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K261" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K262" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K263" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K264" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K265" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K266" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K267" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K268" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K269" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K270" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K271" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K272" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K273" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="11:11">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K274" s="30" t="str">
-        <f t="shared" ref="K274:K337" si="43">IF(H274="","",C274*(H274-D274)*N274)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="11:11">
+        <f t="shared" ref="K274:K337" si="44">IF(H274="","",C274*(H274-D274)*N274)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K275" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K276" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K277" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K278" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K279" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K280" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K281" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K282" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K283" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K284" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K285" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K286" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K287" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K288" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K289" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K290" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K291" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K292" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K293" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K294" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K295" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K296" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K297" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K298" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K299" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K300" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K301" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K302" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K303" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K304" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K305" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K306" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K307" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K308" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K309" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K310" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K311" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K312" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K313" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K314" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K315" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K316" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K317" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K318" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K319" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K320" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K321" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K322" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K323" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K324" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K325" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K326" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K327" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K328" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K329" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K330" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K331" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K332" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K333" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K334" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K335" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K336" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K337" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="11:11">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K338" s="30" t="str">
-        <f t="shared" ref="K338:K368" si="44">IF(H338="","",C338*(H338-D338)*N338)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="11:11">
+        <f t="shared" ref="K338:K368" si="45">IF(H338="","",C338*(H338-D338)*N338)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K339" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K340" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K341" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K342" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K343" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K344" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K345" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K346" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K347" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K348" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K349" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K350" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K351" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K352" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K353" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K354" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K355" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K356" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K357" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K358" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K359" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K360" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K361" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K362" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K363" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K364" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K365" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K366" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K367" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="11:11">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K368" s="30" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
@@ -8576,18 +8619,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8620,7 +8663,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -8652,7 +8695,7 @@
         <v>13770</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
@@ -8684,7 +8727,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -8716,7 +8759,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
@@ -8748,7 +8791,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -8780,7 +8823,7 @@
         <v>-20520</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -8812,7 +8855,7 @@
         <v>-4720</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -8844,7 +8887,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -8870,7 +8913,7 @@
         <v>71820.000000000029</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>104</v>
       </c>
@@ -8902,7 +8945,7 @@
         <v>-11700</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>101</v>
       </c>
@@ -8935,7 +8978,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>99</v>
       </c>
@@ -8967,7 +9010,7 @@
         <v>-9010</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
@@ -8999,7 +9042,7 @@
         <v>3210.9999999999764</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -9031,7 +9074,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
@@ -9063,7 +9106,7 @@
         <v>-4200</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -9095,7 +9138,7 @@
         <v>-11109.960000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -9127,7 +9170,7 @@
         <v>-13020</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -9159,7 +9202,7 @@
         <v>-17160</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -9191,7 +9234,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -9224,7 +9267,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
@@ -9256,7 +9299,7 @@
         <v>-2760</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>103</v>
       </c>
@@ -9288,7 +9331,7 @@
         <v>-4060</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>96</v>
       </c>
@@ -9320,7 +9363,7 @@
         <v>-7280</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>96</v>
       </c>
@@ -9352,7 +9395,7 @@
         <v>-7665</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -9384,7 +9427,7 @@
         <v>15340</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -9416,7 +9459,7 @@
         <v>-6720</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -9448,7 +9491,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -9480,7 +9523,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
@@ -9512,7 +9555,7 @@
         <v>-5890.49999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
@@ -9544,7 +9587,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>92</v>
       </c>
@@ -9576,7 +9619,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -9627,17 +9670,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9662,7 +9705,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -9685,7 +9728,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -9705,7 +9748,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -9725,7 +9768,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -9748,7 +9791,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -9771,7 +9814,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -9791,7 +9834,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -9811,7 +9854,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -9834,7 +9877,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -9857,7 +9900,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -9877,7 +9920,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -9897,7 +9940,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -9917,7 +9960,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>30</v>
@@ -9955,15 +9998,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -9995,7 +10038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -10025,7 +10068,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -10055,7 +10098,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -10085,7 +10128,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -10115,7 +10158,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -10145,7 +10188,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -10175,7 +10218,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -10205,7 +10248,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -10235,7 +10278,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -10265,7 +10308,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -10295,7 +10338,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -10325,7 +10368,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -10352,7 +10395,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -10379,7 +10422,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -10406,7 +10449,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -10433,7 +10476,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -10460,7 +10503,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -10487,7 +10530,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -10514,7 +10557,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -10541,7 +10584,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -10568,7 +10611,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -10595,7 +10638,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -10622,7 +10665,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -10649,7 +10692,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -10676,7 +10719,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -10703,7 +10746,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -10730,7 +10773,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -10757,7 +10800,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -10784,7 +10827,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -10811,7 +10854,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -10838,7 +10881,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -10865,7 +10908,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -10892,7 +10935,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -10919,7 +10962,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -10946,7 +10989,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -10973,7 +11016,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -11000,7 +11043,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -11027,7 +11070,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -11054,7 +11097,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -11081,7 +11124,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -11108,7 +11151,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -11135,7 +11178,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -11162,7 +11205,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -11189,7 +11232,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -11216,31 +11259,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/模拟盘/SimulationTrading.xlsx
+++ b/模拟盘/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="139">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,70 @@
   </si>
   <si>
     <t>IH1803</t>
+  </si>
+  <si>
+    <t>IH1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ban List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG1806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IH1803</t>
@@ -503,7 +567,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -512,7 +576,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,7 +870,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1026,7 +1090,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1041,11 +1105,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="455564592"/>
-        <c:axId val="455565152"/>
+        <c:axId val="260835296"/>
+        <c:axId val="262702640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455564592"/>
+        <c:axId val="260835296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,14 +1152,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455565152"/>
+        <c:crossAx val="262702640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455565152"/>
+        <c:axId val="262702640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1210,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455564592"/>
+        <c:crossAx val="260835296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,7 +1260,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1273,7 +1337,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -1288,11 +1352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="688754448"/>
-        <c:axId val="688753328"/>
+        <c:axId val="262704880"/>
+        <c:axId val="262705440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="688754448"/>
+        <c:axId val="262704880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,14 +1399,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688753328"/>
+        <c:crossAx val="262705440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="688753328"/>
+        <c:axId val="262705440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688754448"/>
+        <c:crossAx val="262704880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2574,7 +2638,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2674,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,21 +2982,21 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" customWidth="1"/>
+    <col min="8" max="9" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +3012,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -2964,10 +3028,10 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!Q1/成交记录!P1</f>
-        <v>0.21249999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.23655913978494625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -2983,10 +3047,10 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!S1/成交记录!T1</f>
-        <v>0.53298765216965482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.7730872127617765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -2998,85 +3062,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3088,7 +3152,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3100,7 +3164,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3112,7 +3176,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3124,7 +3188,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3136,7 +3200,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3148,7 +3212,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3160,7 +3224,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3172,7 +3236,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3184,34 +3248,34 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
       <c r="B26" s="55"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3227,31 +3291,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U368"/>
+  <dimension ref="A1:U371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="14" max="14" width="10.88671875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.875" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3293,28 +3358,28 @@
       </c>
       <c r="O1" s="13"/>
       <c r="P1" s="10">
-        <f>COUNT(K2:K9985)</f>
-        <v>80</v>
+        <f>COUNT(K2:K9988)</f>
+        <v>93</v>
       </c>
       <c r="Q1" s="13">
-        <f>COUNTIF(K2:K9985,"&gt;0")</f>
-        <v>17</v>
+        <f>COUNTIF(K2:K9988,"&gt;0")</f>
+        <v>22</v>
       </c>
       <c r="R1" s="13">
-        <f>COUNTIF(K2:K9985,"&lt;0")</f>
-        <v>63</v>
+        <f>COUNTIF(K2:K9988,"&lt;0")</f>
+        <v>71</v>
       </c>
       <c r="S1" s="13">
-        <f>SUMIF(K2:K9985,"&gt;0")</f>
-        <v>286041.5</v>
+        <f>SUMIF(K2:K9988,"&gt;0")</f>
+        <v>434131.5</v>
       </c>
       <c r="T1" s="13">
-        <f>ABS(SUMIF(K2:K9985,"&lt;0"))</f>
-        <v>536675.66000000015</v>
+        <f>ABS(SUMIF(K2:K9988,"&lt;0"))</f>
+        <v>561555.66000000027</v>
       </c>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3349,14 +3414,26 @@
         <f>[1]!WSD($B2,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3397,7 +3474,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="14.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3424,7 +3501,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="14.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -3465,7 +3542,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3502,7 +3579,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="14.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3621,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="14.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -3586,7 +3663,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3623,7 +3700,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3658,7 +3735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="14.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -3699,7 +3776,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -3742,7 +3819,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3779,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -3806,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -3836,7 +3913,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="14.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3862,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="14.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3899,7 +3976,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3923,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -3963,7 +4040,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4003,7 +4080,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="14.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -4025,7 +4102,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4054,7 +4131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="14.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -4073,25 +4150,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:16" ht="15" thickBot="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="48">
         <v>22</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="48">
         <f>1332*5/22+1331.5*5/22</f>
         <v>605.34090909090912</v>
       </c>
-      <c r="K24" s="30"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="11">
         <f>[1]!WSD($B24,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="14.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4100,7 +4185,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4112,6 +4197,9 @@
       </c>
       <c r="D26" s="1">
         <v>2929</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43102</v>
       </c>
       <c r="H26" s="1">
         <v>3168.4</v>
@@ -4131,210 +4219,210 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:16" ht="14.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4106.8</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43102</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4385.8</v>
+      </c>
+      <c r="I27" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J27" s="40">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="K27" s="30">
+        <f>IF(H27="","",C27*(H27-D27)*N27)</f>
+        <v>83700</v>
+      </c>
+      <c r="N27" s="11">
+        <f>[1]!WSD($B27,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.25">
+      <c r="A28" s="2">
         <v>43103</v>
-      </c>
-      <c r="N27" s="11" t="str">
-        <f>[1]!WSD($B27,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>#NA</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>43104</v>
       </c>
       <c r="N28" s="11" t="str">
         <f>[1]!WSD($B28,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="14.25">
       <c r="A29" s="2">
-        <v>43105</v>
+        <v>43104</v>
       </c>
       <c r="N29" s="11" t="str">
         <f>[1]!WSD($B29,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.25">
       <c r="A30" s="2">
-        <v>43108</v>
+        <v>43105</v>
       </c>
       <c r="N30" s="11" t="str">
         <f>[1]!WSD($B30,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14.25">
       <c r="A31" s="2">
+        <v>43108</v>
+      </c>
+      <c r="N31" s="11" t="str">
+        <f>[1]!WSD($B31,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>#NA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.25">
+      <c r="A32" s="2">
         <v>43109</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N32" s="11">
         <f>[1]!WSD($B26,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="33" spans="1:16" ht="14.25">
+      <c r="A33" s="2">
         <v>43110</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>-16</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>5336</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F33" s="40">
         <v>0.56388888888888888</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G33" s="31">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>5228</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I33" s="2">
         <v>43124</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J33" s="40">
         <v>0.89930555555555547</v>
       </c>
-      <c r="K32" s="30">
-        <f>IF(H32="","",C32*(H32-D32)*N32)</f>
+      <c r="K33" s="30">
+        <f>IF(H33="","",C33*(H33-D33)*N33)</f>
         <v>17280</v>
       </c>
-      <c r="N32" s="11">
-        <f>[1]!WSD($B32,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="N33" s="11">
+        <f>[1]!WSD($B33,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+    <row r="34" spans="1:16" ht="14.25">
+      <c r="A34" s="33">
         <v>43111</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="28" t="str">
-        <f t="shared" ref="K33:K57" si="5">IF(H33="","",C33*(H33-D33)*N33)</f>
-        <v/>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="11" t="str">
-        <f>[1]!WSD($B33,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="28" t="str">
+        <f t="shared" ref="K34:K58" si="5">IF(H34="","",C34*(H34-D34)*N34)</f>
+        <v/>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="11" t="str">
+        <f>[1]!WSD($B34,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>#NA</v>
       </c>
-      <c r="O33" s="36"/>
-      <c r="P33" s="24"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="O34" s="36"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.25">
+      <c r="A35" s="35">
         <v>43112</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B35" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C35" s="24">
         <v>-30</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D35" s="24">
         <f>10/30*3782+20/30*3781</f>
         <v>3781.333333333333</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="24">
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="24">
         <v>3834</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I35" s="35">
         <v>43117</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="30">
+      <c r="J35" s="24"/>
+      <c r="K35" s="30">
         <f t="shared" si="5"/>
         <v>-15800.000000000091</v>
       </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="11">
-        <f>[1]!WSD($B34,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="L35" s="24"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="11">
+        <f>[1]!WSD($B35,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
-      <c r="O34" s="36"/>
-      <c r="P34" s="24"/>
-    </row>
-    <row r="35" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="48" t="s">
+      <c r="O35" s="36"/>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:16" ht="15" thickBot="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C36" s="48">
         <v>40</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D36" s="48">
         <v>6795</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="48">
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="48">
         <v>6640</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I36" s="52">
         <v>43117</v>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="54">
+      <c r="J36" s="48"/>
+      <c r="K36" s="54">
         <f t="shared" si="5"/>
         <v>-31000</v>
       </c>
-      <c r="L35" s="48"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="11">
-        <f>[1]!WSD($B35,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
-      </c>
-      <c r="O35" s="36"/>
-      <c r="P35" s="24"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>43115</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="D36" s="1">
-        <v>54520</v>
-      </c>
-      <c r="H36" s="1">
-        <f>54520*0.4+55030*0.6</f>
-        <v>54826</v>
-      </c>
-      <c r="I36" s="2">
-        <v>43115</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="30">
-        <f t="shared" si="5"/>
-        <v>-15300</v>
-      </c>
+      <c r="L36" s="48"/>
+      <c r="M36" s="51"/>
       <c r="N36" s="11">
         <f>[1]!WSD($B36,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
@@ -4342,155 +4430,151 @@
       <c r="O36" s="36"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="14.25">
+      <c r="A37" s="2">
+        <v>43115</v>
+      </c>
       <c r="B37" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
-        <f>2+18+4+4+4+4+4+2+2+2+2+2</f>
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="D37" s="1">
-        <v>1491</v>
+        <v>54520</v>
       </c>
       <c r="H37" s="1">
-        <v>1472</v>
+        <f>54520*0.4+55030*0.6</f>
+        <v>54826</v>
       </c>
       <c r="I37" s="2">
-        <v>43117</v>
+        <v>43115</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="30">
         <f t="shared" si="5"/>
-        <v>-19000</v>
+        <v>-15300</v>
       </c>
       <c r="N37" s="11">
         <f>[1]!WSD($B37,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O37" s="36"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="s">
+    <row r="38" spans="1:16" ht="14.25">
+      <c r="B38" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1">
+        <f>2+18+4+4+4+4+4+2+2+2+2+2</f>
+        <v>50</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1491</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1472</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43117</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="30">
+        <f t="shared" si="5"/>
+        <v>-19000</v>
+      </c>
+      <c r="N38" s="11">
+        <f>[1]!WSD($B38,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="O38" s="36"/>
+      <c r="P38" s="24"/>
+    </row>
+    <row r="39" spans="1:16" ht="14.25">
+      <c r="B39" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C39" s="3">
         <v>30</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D39" s="3">
         <v>633</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="3">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="3">
         <v>629</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I39" s="33">
         <v>43115</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="28">
+      <c r="J39" s="33"/>
+      <c r="K39" s="28">
         <f t="shared" si="5"/>
         <v>-12000</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="11">
-        <f>[1]!WSD($B38,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>100</v>
-      </c>
-      <c r="O38" s="36"/>
-      <c r="P38" s="24"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1">
-        <v>76</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5680</v>
-      </c>
-      <c r="G39" s="31">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H39" s="1">
-        <v>5624</v>
-      </c>
-      <c r="I39" s="2">
-        <v>43117</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="30">
-        <f t="shared" si="5"/>
-        <v>-21280</v>
-      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
       <c r="N39" s="11">
         <f>[1]!WSD($B39,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
-      </c>
-      <c r="O39" s="36">
-        <v>9900000</v>
-      </c>
-      <c r="P39" s="24">
-        <f t="shared" ref="P39:P44" si="6">O39*G39/(D39*N39*0.15)</f>
-        <v>76.690140845070417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="O39" s="36"/>
+      <c r="P39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" ht="14.25">
       <c r="B40" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1">
-        <v>2271</v>
+        <v>5680</v>
       </c>
       <c r="G40" s="31">
-        <v>2.1999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H40" s="1">
-        <v>2265</v>
+        <v>5624</v>
       </c>
       <c r="I40" s="2">
-        <v>43115</v>
+        <v>43117</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="30">
         <f t="shared" si="5"/>
-        <v>-3840</v>
+        <v>-21280</v>
       </c>
       <c r="N40" s="11">
         <f>[1]!WSD($B40,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O40" s="36">
         <v>9900000</v>
       </c>
       <c r="P40" s="24">
-        <f t="shared" si="6"/>
-        <v>63.936591809775429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P40:P45" si="6">O40*G40/(D40*N40*0.15)</f>
+        <v>76.690140845070417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="14.25">
       <c r="B41" s="37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1">
-        <v>2150</v>
+        <v>2271</v>
       </c>
       <c r="G41" s="31">
-        <v>2.9000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H41" s="1">
-        <v>2137</v>
+        <v>2265</v>
       </c>
       <c r="I41" s="2">
         <v>43115</v>
@@ -4498,331 +4582,337 @@
       <c r="J41" s="2"/>
       <c r="K41" s="30">
         <f t="shared" si="5"/>
-        <v>-11570</v>
-      </c>
-      <c r="L41" s="1">
-        <f>I41-$A$36</f>
-        <v>0</v>
+        <v>-3840</v>
       </c>
       <c r="N41" s="11">
         <f>[1]!WSD($B41,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O41" s="36">
-        <v>9890000</v>
+        <v>9900000</v>
       </c>
       <c r="P41" s="24">
         <f t="shared" si="6"/>
-        <v>88.933333333333337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>63.936591809775429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="14.25">
       <c r="B42" s="37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D42" s="1">
-        <v>99620</v>
+        <v>2150</v>
       </c>
       <c r="G42" s="31">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="H42" s="1">
-        <v>97180</v>
+        <v>2137</v>
       </c>
       <c r="I42" s="2">
-        <v>43117</v>
+        <v>43115</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="30">
         <f t="shared" si="5"/>
-        <v>-46360</v>
+        <v>-11570</v>
+      </c>
+      <c r="L42" s="1">
+        <f>I42-$A$37</f>
+        <v>0</v>
       </c>
       <c r="N42" s="11">
         <f>[1]!WSD($B42,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O42" s="36">
-        <v>9900000</v>
+        <v>9890000</v>
       </c>
       <c r="P42" s="24">
         <f t="shared" si="6"/>
-        <v>19.213009435856254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>88.933333333333337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="14.25">
       <c r="B43" s="37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1">
-        <v>6293.6</v>
+        <v>99620</v>
       </c>
       <c r="G43" s="31">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H43" s="1">
-        <v>6196</v>
+        <v>97180</v>
       </c>
       <c r="I43" s="2">
-        <v>43115</v>
+        <v>43117</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="30">
         <f t="shared" si="5"/>
-        <v>-19520.000000000073</v>
+        <v>-46360</v>
       </c>
       <c r="N43" s="11">
         <f>[1]!WSD($B43,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="O43" s="36">
         <v>9900000</v>
       </c>
       <c r="P43" s="24">
         <f t="shared" si="6"/>
-        <v>1.4681581288928436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="24">
-        <v>-51</v>
-      </c>
-      <c r="D44" s="24">
-        <v>6444</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="34">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H44" s="24">
-        <v>6472</v>
-      </c>
-      <c r="I44" s="35">
+        <v>19.213009435856254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="14.25">
+      <c r="B44" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6293.6</v>
+      </c>
+      <c r="G44" s="31">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>6196</v>
+      </c>
+      <c r="I44" s="2">
         <v>43115</v>
       </c>
-      <c r="J44" s="35"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="30">
         <f t="shared" si="5"/>
-        <v>-7140</v>
-      </c>
-      <c r="L44" s="24"/>
-      <c r="M44" s="36"/>
+        <v>-19520.000000000073</v>
+      </c>
       <c r="N44" s="11">
         <f>[1]!WSD($B44,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="O44" s="36">
         <v>9900000</v>
       </c>
       <c r="P44" s="24">
         <f t="shared" si="6"/>
-        <v>51.21042830540037</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="3">
-        <v>6</v>
-      </c>
-      <c r="D45" s="3">
-        <v>55030</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="32">
+        <v>1.4681581288928436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="14.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="24">
+        <v>-51</v>
+      </c>
+      <c r="D45" s="24">
+        <v>6444</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="34">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H45" s="3">
-        <v>54950</v>
-      </c>
-      <c r="I45" s="33">
-        <v>43116</v>
-      </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="28">
+      <c r="H45" s="24">
+        <v>6472</v>
+      </c>
+      <c r="I45" s="35">
+        <v>43115</v>
+      </c>
+      <c r="J45" s="35"/>
+      <c r="K45" s="30">
         <f t="shared" si="5"/>
-        <v>-2400</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="4"/>
+        <v>-7140</v>
+      </c>
+      <c r="L45" s="24"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="11">
         <f>[1]!WSD($B45,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
-      <c r="O45" s="36"/>
-      <c r="P45" s="24"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="O45" s="36">
+        <v>9900000</v>
+      </c>
+      <c r="P45" s="24">
+        <f t="shared" si="6"/>
+        <v>51.21042830540037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="14.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6</v>
+      </c>
+      <c r="D46" s="3">
+        <v>55030</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H46" s="3">
+        <v>54950</v>
+      </c>
+      <c r="I46" s="33">
         <v>43116</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="J46" s="33"/>
+      <c r="K46" s="28">
+        <f t="shared" si="5"/>
+        <v>-2400</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="11">
+        <f>[1]!WSD($B46,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O46" s="36"/>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="1:16" ht="14.25">
+      <c r="A47" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>72</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>2269</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G47" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H47" s="1">
         <v>2270</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I47" s="2">
         <v>43119</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J47" s="40">
         <v>0.8847222222222223</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K47" s="30">
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="N46" s="11">
-        <f>[1]!WSD($B46,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="N47" s="11">
+        <f>[1]!WSD($B47,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
-      <c r="O46" s="36"/>
-      <c r="P46" s="24"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="O47" s="36"/>
+      <c r="P47" s="24"/>
+    </row>
+    <row r="48" spans="1:16" ht="14.25">
+      <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C48" s="1">
         <v>32</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <v>3927</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G48" s="31">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H48" s="1">
         <v>3879</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I48" s="2">
         <v>43117</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="30">
+      <c r="J48" s="2"/>
+      <c r="K48" s="30">
         <f t="shared" si="5"/>
         <v>-23040</v>
       </c>
-      <c r="N47" s="11">
-        <f>[1]!WSD($B47,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="N48" s="11">
+        <f>[1]!WSD($B48,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>15</v>
       </c>
-      <c r="O47" s="36"/>
-      <c r="P47" s="24"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="O48" s="36"/>
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="1:16" ht="14.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C49" s="3">
         <v>-5</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>54880</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="32">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="32">
         <v>2.3E-2</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="3">
         <v>52700</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I49" s="33">
         <v>43124</v>
       </c>
-      <c r="J48" s="45">
+      <c r="J49" s="45">
         <v>0.62013888888888891</v>
       </c>
-      <c r="K48" s="28">
+      <c r="K49" s="28">
         <f t="shared" si="5"/>
         <v>54500</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="11">
-        <f>[1]!WSD($B48,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="L49" s="3"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="11">
+        <f>[1]!WSD($B49,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
-      <c r="O48" s="36"/>
-      <c r="P48" s="24"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="O49" s="36"/>
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" spans="1:16" ht="14.25">
+      <c r="A50" s="2">
         <v>43117</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>-17</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="1">
         <v>3880</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <v>3895</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I50" s="2">
         <v>43117</v>
       </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="30">
+      <c r="J50" s="2"/>
+      <c r="K50" s="30">
         <f t="shared" si="5"/>
         <v>-3825</v>
-      </c>
-      <c r="N49" s="11">
-        <f>[1]!WSD($B49,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>15</v>
-      </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="24"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="1">
-        <v>-18</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3886</v>
-      </c>
-      <c r="H50" s="1">
-        <v>3835</v>
-      </c>
-      <c r="I50" s="2">
-        <v>43124</v>
-      </c>
-      <c r="J50" s="40">
-        <v>0.62013888888888891</v>
-      </c>
-      <c r="K50" s="30">
-        <f t="shared" si="5"/>
-        <v>13770</v>
       </c>
       <c r="N50" s="11">
         <f>[1]!WSD($B50,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -4831,189 +4921,193 @@
       <c r="O50" s="36"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="14.25">
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1">
-        <v>7</v>
+        <v>-18</v>
       </c>
       <c r="D51" s="1">
-        <v>281.64999999999998</v>
+        <v>3886</v>
       </c>
       <c r="H51" s="1">
-        <v>281.14999999999998</v>
+        <v>3835</v>
       </c>
       <c r="I51" s="2">
-        <v>43117</v>
+        <v>43124</v>
+      </c>
+      <c r="J51" s="40">
+        <v>0.62013888888888891</v>
       </c>
       <c r="K51" s="30">
         <f t="shared" si="5"/>
-        <v>-3500</v>
+        <v>13770</v>
       </c>
       <c r="N51" s="11">
         <f>[1]!WSD($B51,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="O51" s="36"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="14.25">
       <c r="B52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1">
-        <v>2732</v>
+        <v>281.64999999999998</v>
       </c>
       <c r="H52" s="1">
-        <v>2726</v>
+        <v>281.14999999999998</v>
       </c>
       <c r="I52" s="2">
         <v>43117</v>
       </c>
       <c r="K52" s="30">
         <f t="shared" si="5"/>
-        <v>-540</v>
+        <v>-3500</v>
       </c>
       <c r="N52" s="11">
         <f>[1]!WSD($B52,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="O52" s="36"/>
+      <c r="P52" s="24"/>
+    </row>
+    <row r="53" spans="1:16" ht="14.25">
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1">
-        <v>2738</v>
+        <v>2732</v>
       </c>
       <c r="H53" s="1">
-        <v>2734</v>
+        <v>2726</v>
       </c>
       <c r="I53" s="2">
         <v>43117</v>
       </c>
       <c r="K53" s="30">
         <f t="shared" si="5"/>
-        <v>-120</v>
+        <v>-540</v>
       </c>
       <c r="N53" s="11">
         <f>[1]!WSD($B53,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="14.25">
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1">
-        <v>2768</v>
+        <v>2738</v>
       </c>
       <c r="H54" s="1">
-        <v>2764</v>
+        <v>2734</v>
       </c>
       <c r="I54" s="2">
-        <v>43118</v>
-      </c>
-      <c r="J54" s="40">
-        <v>0.8881944444444444</v>
+        <v>43117</v>
       </c>
       <c r="K54" s="30">
         <f t="shared" si="5"/>
-        <v>-400</v>
+        <v>-120</v>
       </c>
       <c r="N54" s="11">
         <f>[1]!WSD($B54,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="14.25">
       <c r="B55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1">
-        <v>-31</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <f>3803*1/31+3805*30/31</f>
-        <v>3804.9354838709678</v>
+        <v>2768</v>
       </c>
       <c r="H55" s="1">
-        <v>3826</v>
+        <v>2764</v>
       </c>
       <c r="I55" s="2">
-        <v>43117</v>
+        <v>43118</v>
+      </c>
+      <c r="J55" s="40">
+        <v>0.8881944444444444</v>
       </c>
       <c r="K55" s="30">
         <f t="shared" si="5"/>
-        <v>-6529.9999999999818</v>
+        <v>-400</v>
       </c>
       <c r="N55" s="11">
         <f>[1]!WSD($B55,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="14.25">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1">
-        <v>-7</v>
+        <v>-31</v>
       </c>
       <c r="D56" s="1">
-        <v>14200</v>
+        <f>3803*1/31+3805*30/31</f>
+        <v>3804.9354838709678</v>
       </c>
       <c r="H56" s="1">
-        <v>14240</v>
+        <v>3826</v>
       </c>
       <c r="I56" s="2">
         <v>43117</v>
       </c>
       <c r="K56" s="30">
         <f t="shared" si="5"/>
-        <v>-2800</v>
+        <v>-6529.9999999999818</v>
       </c>
       <c r="N56" s="11">
         <f>[1]!WSD($B56,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="14.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="1">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="D57" s="1">
-        <f>14240*1/6+14245*5/6</f>
-        <v>14244.166666666668</v>
+        <v>14200</v>
       </c>
       <c r="H57" s="1">
-        <v>14215</v>
+        <v>14240</v>
       </c>
       <c r="I57" s="2">
         <v>43117</v>
       </c>
       <c r="K57" s="30">
         <f t="shared" si="5"/>
-        <v>-1750.0000000000728</v>
+        <v>-2800</v>
       </c>
       <c r="N57" s="11">
         <f>[1]!WSD($B57,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="14.25">
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
@@ -5021,572 +5115,554 @@
         <v>6</v>
       </c>
       <c r="D58" s="1">
-        <f>14225*1/6+14230*5/6</f>
-        <v>14229.166666666668</v>
+        <f>14240*1/6+14245*5/6</f>
+        <v>14244.166666666668</v>
       </c>
       <c r="H58" s="1">
-        <v>14190</v>
+        <v>14215</v>
       </c>
       <c r="I58" s="2">
         <v>43117</v>
       </c>
       <c r="K58" s="30">
-        <f t="shared" ref="K58:K77" si="7">IF(H58="","",C58*(H58-D58)*N58)</f>
-        <v>-2350.0000000000728</v>
+        <f t="shared" si="5"/>
+        <v>-1750.0000000000728</v>
       </c>
       <c r="N58" s="11">
         <f>[1]!WSD($B58,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="14.25">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="1">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="D59" s="1">
-        <f>14125*1/16+14130*15/16</f>
-        <v>14129.6875</v>
+        <f>14225*1/6+14230*5/6</f>
+        <v>14229.166666666668</v>
       </c>
       <c r="H59" s="1">
-        <v>14175</v>
+        <v>14190</v>
       </c>
       <c r="I59" s="2">
-        <v>43118</v>
-      </c>
-      <c r="J59" s="40">
-        <v>0.37847222222222227</v>
+        <v>43117</v>
       </c>
       <c r="K59" s="30">
-        <f t="shared" si="7"/>
-        <v>-7250</v>
+        <f t="shared" ref="K59:K78" si="7">IF(H59="","",C59*(H59-D59)*N59)</f>
+        <v>-2350.0000000000728</v>
       </c>
       <c r="N59" s="11">
         <f>[1]!WSD($B59,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="14.25">
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
-        <v>61</v>
+        <v>-16</v>
       </c>
       <c r="D60" s="1">
-        <v>1478</v>
+        <f>14125*1/16+14130*15/16</f>
+        <v>14129.6875</v>
       </c>
       <c r="H60" s="1">
-        <v>1477</v>
+        <v>14175</v>
       </c>
       <c r="I60" s="2">
         <v>43118</v>
       </c>
       <c r="J60" s="40">
-        <v>0.8881944444444444</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="K60" s="30">
         <f t="shared" si="7"/>
-        <v>-1220</v>
+        <v>-7250</v>
       </c>
       <c r="N60" s="11">
         <f>[1]!WSD($B60,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="14.25">
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1">
+        <v>61</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1478</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1477</v>
+      </c>
+      <c r="I61" s="2">
+        <v>43118</v>
+      </c>
+      <c r="J61" s="40">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="K61" s="30">
+        <f t="shared" si="7"/>
+        <v>-1220</v>
+      </c>
+      <c r="N61" s="11">
+        <f>[1]!WSD($B61,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="1:16" ht="14.25">
+      <c r="B62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C62" s="1">
         <v>-16</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D62" s="1">
         <f>2827*1/16+2825*15/16</f>
         <v>2825.125</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H62" s="1">
         <v>2857</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I62" s="2">
         <v>43123</v>
       </c>
-      <c r="J61" s="40">
+      <c r="J62" s="40">
         <v>0.4680555555555555</v>
       </c>
-      <c r="K61" s="30">
+      <c r="K62" s="30">
         <f t="shared" si="7"/>
         <v>-5100</v>
-      </c>
-      <c r="N61" s="11">
-        <f>[1]!WSD($B61,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="1">
-        <f>1+6+114+12</f>
-        <v>133</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2132</v>
-      </c>
-      <c r="H62" s="1">
-        <v>2123</v>
-      </c>
-      <c r="I62" s="2">
-        <v>43117</v>
-      </c>
-      <c r="K62" s="30">
-        <f t="shared" si="7"/>
-        <v>-11970</v>
       </c>
       <c r="N62" s="11">
         <f>[1]!WSD($B62,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="14.25">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="1">
-        <v>-6</v>
+        <f>1+6+114+12</f>
+        <v>133</v>
       </c>
       <c r="D63" s="1">
-        <v>2122</v>
+        <v>2132</v>
       </c>
       <c r="H63" s="1">
-        <v>2094</v>
+        <v>2123</v>
       </c>
       <c r="I63" s="2">
-        <v>43125</v>
-      </c>
-      <c r="J63" s="40">
-        <v>0.37986111111111115</v>
+        <v>43117</v>
       </c>
       <c r="K63" s="30">
         <f t="shared" si="7"/>
-        <v>1680</v>
+        <v>-11970</v>
       </c>
       <c r="N63" s="11">
         <f>[1]!WSD($B63,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="14.25">
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1">
-        <v>-33</v>
+        <v>-6</v>
       </c>
       <c r="D64" s="1">
-        <v>2761</v>
+        <v>2122</v>
       </c>
       <c r="H64" s="1">
-        <v>2762</v>
+        <v>2094</v>
       </c>
       <c r="I64" s="2">
-        <v>43117</v>
+        <v>43125</v>
+      </c>
+      <c r="J64" s="40">
+        <v>0.37986111111111115</v>
       </c>
       <c r="K64" s="30">
         <f t="shared" si="7"/>
-        <v>-330</v>
+        <v>1680</v>
       </c>
       <c r="N64" s="11">
         <f>[1]!WSD($B64,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="14.25">
       <c r="B65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="1">
+        <v>-33</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2761</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2762</v>
+      </c>
+      <c r="I65" s="2">
+        <v>43117</v>
+      </c>
+      <c r="K65" s="30">
+        <f t="shared" si="7"/>
+        <v>-330</v>
+      </c>
+      <c r="N65" s="11">
+        <f>[1]!WSD($B65,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="14.25">
+      <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C66" s="1">
         <v>36</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D66" s="1">
         <f>9443*1/36+9438*35/36</f>
         <v>9438.1388888888887</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H66" s="1">
         <f>9421*2/36+9422*34/36</f>
         <v>9421.9444444444434</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I66" s="2">
         <v>43117</v>
       </c>
-      <c r="K65" s="30">
+      <c r="K66" s="30">
         <f t="shared" si="7"/>
         <v>-2915.0000000001455</v>
-      </c>
-      <c r="N65" s="11">
-        <f>[1]!WSD($B65,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="1">
-        <v>36</v>
-      </c>
-      <c r="D66" s="1">
-        <f>9387*1/36+9390*35/36</f>
-        <v>9389.9166666666661</v>
-      </c>
-      <c r="H66" s="1">
-        <v>9385</v>
-      </c>
-      <c r="I66" s="2">
-        <v>43117</v>
-      </c>
-      <c r="K66" s="30">
-        <f t="shared" si="7"/>
-        <v>-884.99999999989086</v>
       </c>
       <c r="N66" s="11">
         <f>[1]!WSD($B66,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="14.25">
       <c r="B67" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C67" s="1">
-        <v>-34</v>
+        <v>36</v>
       </c>
       <c r="D67" s="1">
-        <v>6570</v>
+        <f>9387*1/36+9390*35/36</f>
+        <v>9389.9166666666661</v>
       </c>
       <c r="H67" s="1">
-        <v>6585</v>
+        <v>9385</v>
       </c>
       <c r="I67" s="2">
         <v>43117</v>
       </c>
       <c r="K67" s="30">
         <f t="shared" si="7"/>
-        <v>-2550</v>
+        <v>-884.99999999989086</v>
       </c>
       <c r="N67" s="11">
         <f>[1]!WSD($B67,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:16" ht="14.25">
+      <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>-34</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="1">
         <v>6570</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="3">
-        <f>6580*4/34+6575*30/34</f>
-        <v>6575.5882352941171</v>
-      </c>
-      <c r="I68" s="33">
+      <c r="H68" s="1">
+        <v>6585</v>
+      </c>
+      <c r="I68" s="2">
         <v>43117</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="28">
+      <c r="K68" s="30">
         <f t="shared" si="7"/>
-        <v>-949.99999999990905</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="4"/>
+        <v>-2550</v>
+      </c>
       <c r="N68" s="11">
         <f>[1]!WSD($B68,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="69" spans="1:16" ht="14.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="3">
+        <v>-34</v>
+      </c>
+      <c r="D69" s="3">
+        <v>6570</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="3">
+        <f>6580*4/34+6575*30/34</f>
+        <v>6575.5882352941171</v>
+      </c>
+      <c r="I69" s="33">
+        <v>43117</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="28">
+        <f t="shared" si="7"/>
+        <v>-949.99999999990905</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="11">
+        <f>[1]!WSD($B69,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="14.25">
+      <c r="A70" s="2">
         <v>43118</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B70" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="41">
+      <c r="C70" s="41">
         <v>-12</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D70" s="41">
         <v>97244.17</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E70" s="57">
         <v>43118</v>
       </c>
-      <c r="F69" s="42">
+      <c r="F70" s="42">
         <v>0.88888888888888884</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G70" s="43">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H69" s="41">
+      <c r="H70" s="41">
         <v>98170</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I70" s="33">
         <v>43122</v>
       </c>
-      <c r="J69" s="42">
+      <c r="J70" s="42">
         <v>0.97013888888888899</v>
       </c>
-      <c r="K69" s="46">
+      <c r="K70" s="46">
         <f t="shared" si="7"/>
         <v>-11109.960000000021</v>
       </c>
-      <c r="L69" s="41"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="11">
-        <f>[1]!WSD($B69,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="L70" s="41"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="11">
+        <f>[1]!WSD($B70,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:16" ht="14.25">
+      <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C71" s="1">
         <v>1</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D71" s="1">
         <v>14180</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E71" s="2">
         <v>43118</v>
       </c>
-      <c r="F70" s="40">
+      <c r="F71" s="40">
         <v>0.37847222222222227</v>
       </c>
-      <c r="G70" s="31">
+      <c r="G71" s="31">
         <v>2E-3</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H71" s="1">
         <v>14170</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I71" s="2">
         <v>43119</v>
       </c>
-      <c r="J70" s="40">
+      <c r="J71" s="40">
         <v>0.8847222222222223</v>
       </c>
-      <c r="K70" s="30">
+      <c r="K71" s="30">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
-      <c r="N70" s="11">
-        <f>[1]!WSD($B70,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="N71" s="11">
+        <f>[1]!WSD($B71,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
+    <row r="72" spans="1:16" ht="14.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C72" s="3">
         <v>38</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="3">
         <v>1494</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="33">
         <v>43118</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F72" s="45">
         <v>0.58750000000000002</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G72" s="32">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H72" s="3">
         <v>1467</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I72" s="33">
         <v>43122</v>
       </c>
-      <c r="J71" s="45">
+      <c r="J72" s="45">
         <v>0.92083333333333339</v>
       </c>
-      <c r="K71" s="28">
+      <c r="K72" s="28">
         <f t="shared" si="7"/>
         <v>-20520</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="11">
-        <f>[1]!WSD($B71,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="L72" s="3"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="11">
+        <f>[1]!WSD($B72,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>20</v>
       </c>
-      <c r="O71" s="36">
+      <c r="O72" s="36">
         <v>9689000</v>
       </c>
-      <c r="P71" s="24">
-        <f t="shared" ref="P71:P72" si="8">O71*G71/(D71*N71*0.15)</f>
+      <c r="P72" s="24">
+        <f t="shared" ref="P72:P73" si="8">O72*G72/(D72*N72*0.15)</f>
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="73" spans="1:16" ht="14.25">
+      <c r="A73" s="2">
         <v>43119</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C73" s="1">
         <v>26</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D73" s="1">
         <v>3874</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E73" s="2">
         <v>43119</v>
       </c>
-      <c r="F72" s="40">
+      <c r="F73" s="40">
         <v>0.8847222222222223</v>
       </c>
-      <c r="G72" s="31">
+      <c r="G73" s="31">
         <v>1.6E-2</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H73" s="1">
         <v>3933</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I73" s="2">
         <v>43122</v>
       </c>
-      <c r="J72" s="40">
+      <c r="J73" s="40">
         <v>0.60416666666666663</v>
       </c>
-      <c r="K72" s="30">
+      <c r="K73" s="30">
         <f t="shared" si="7"/>
         <v>15340</v>
       </c>
-      <c r="N72" s="11">
-        <f>[1]!WSD($B72,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
-      </c>
-      <c r="O72" s="36">
-        <v>9689000</v>
-      </c>
-      <c r="P72" s="24">
-        <f t="shared" si="8"/>
-        <v>26.677680261572878</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="3">
-        <v>-17</v>
-      </c>
-      <c r="D73" s="3">
-        <v>14155</v>
-      </c>
-      <c r="E73" s="2">
-        <v>43119</v>
-      </c>
-      <c r="F73" s="45">
-        <v>0.92083333333333339</v>
-      </c>
-      <c r="G73" s="32">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H73" s="3">
-        <v>14185</v>
-      </c>
-      <c r="I73" s="33">
-        <v>43119</v>
-      </c>
-      <c r="J73" s="45">
-        <v>0.375</v>
-      </c>
-      <c r="K73" s="28">
-        <f t="shared" si="7"/>
-        <v>-5100</v>
-      </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="4"/>
       <c r="N73" s="11">
         <f>[1]!WSD($B73,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O73" s="36">
-        <v>9689001</v>
+        <v>9689000</v>
       </c>
       <c r="P73" s="24">
-        <f t="shared" ref="P73:P74" si="9">O73*G73/(D73*N73*0.15)</f>
-        <v>17.340493959731543</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="1">
-        <v>84</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2293</v>
-      </c>
-      <c r="E74" s="2">
+        <f t="shared" si="8"/>
+        <v>26.677680261572878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="14.25">
+      <c r="B74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="3">
+        <v>-17</v>
+      </c>
+      <c r="D74" s="3">
+        <v>14155</v>
+      </c>
+      <c r="E74" s="33">
         <v>43119</v>
       </c>
-      <c r="F74" s="40">
+      <c r="F74" s="45">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="G74" s="32">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H74" s="3">
+        <v>14185</v>
+      </c>
+      <c r="I74" s="33">
+        <v>43119</v>
+      </c>
+      <c r="J74" s="45">
         <v>0.375</v>
       </c>
-      <c r="G74" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="H74" s="1">
-        <v>2285</v>
-      </c>
-      <c r="I74" s="2">
-        <v>43124</v>
-      </c>
-      <c r="J74" s="40">
-        <v>0.57013888888888886</v>
-      </c>
-      <c r="K74" s="30">
+      <c r="K74" s="28">
         <f t="shared" si="7"/>
-        <v>-6720</v>
-      </c>
+        <v>-5100</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="4"/>
       <c r="N74" s="11">
         <f>[1]!WSD($B74,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O74" s="36">
-        <v>9695001</v>
+        <v>9689001</v>
       </c>
       <c r="P74" s="24">
-        <f t="shared" si="9"/>
-        <v>84.561718273004786</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P74:P75" si="9">O74*G74/(D74*N74*0.15)</f>
+        <v>17.340493959731543</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="14.25">
       <c r="B75" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="1">
-        <v>-8</v>
+        <v>84</v>
       </c>
       <c r="D75" s="1">
-        <v>3847</v>
+        <v>2293</v>
       </c>
       <c r="E75" s="2">
         <v>43119</v>
@@ -5595,174 +5671,174 @@
         <v>0.375</v>
       </c>
       <c r="G75" s="31">
-        <v>5.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="H75" s="1">
-        <v>3906</v>
+        <v>2285</v>
       </c>
       <c r="I75" s="2">
-        <v>43122</v>
+        <v>43124</v>
       </c>
       <c r="J75" s="40">
-        <v>0.37916666666666665</v>
+        <v>0.57013888888888886</v>
       </c>
       <c r="K75" s="30">
         <f t="shared" si="7"/>
-        <v>-4720</v>
+        <v>-6720</v>
       </c>
       <c r="N75" s="11">
         <f>[1]!WSD($B75,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O75" s="36">
-        <v>9695002</v>
+        <v>9695001</v>
       </c>
       <c r="P75" s="24">
-        <f t="shared" ref="P75:P76" si="10">O75*G75/(D75*N75*0.15)</f>
-        <v>8.40048695953557</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="24">
-        <v>-17</v>
-      </c>
-      <c r="D76" s="24">
-        <v>14055</v>
+        <f t="shared" si="9"/>
+        <v>84.561718273004786</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="14.25">
+      <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3847</v>
       </c>
       <c r="E76" s="2">
         <v>43119</v>
       </c>
-      <c r="F76" s="47">
-        <v>0.44027777777777777</v>
-      </c>
-      <c r="G76" s="34">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H76" s="24">
-        <v>13800</v>
-      </c>
-      <c r="I76" s="35">
-        <v>43124</v>
-      </c>
-      <c r="J76" s="47">
-        <v>0.62013888888888891</v>
+      <c r="F76" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G76" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3906</v>
+      </c>
+      <c r="I76" s="2">
+        <v>43122</v>
+      </c>
+      <c r="J76" s="40">
+        <v>0.37916666666666665</v>
       </c>
       <c r="K76" s="30">
         <f t="shared" si="7"/>
-        <v>43350</v>
-      </c>
-      <c r="L76" s="24"/>
-      <c r="M76" s="36"/>
+        <v>-4720</v>
+      </c>
       <c r="N76" s="11">
         <f>[1]!WSD($B76,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O76" s="36">
+        <v>9695002</v>
+      </c>
+      <c r="P76" s="24">
+        <f t="shared" ref="P76:P77" si="10">O76*G76/(D76*N76*0.15)</f>
+        <v>8.40048695953557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="14.25">
+      <c r="B77" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="24">
+        <v>-17</v>
+      </c>
+      <c r="D77" s="24">
+        <v>14055</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43119</v>
+      </c>
+      <c r="F77" s="47">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="G77" s="34">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H77" s="24">
+        <v>13800</v>
+      </c>
+      <c r="I77" s="35">
+        <v>43124</v>
+      </c>
+      <c r="J77" s="47">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="K77" s="30">
+        <f t="shared" si="7"/>
+        <v>43350</v>
+      </c>
+      <c r="L77" s="24"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="11">
+        <f>[1]!WSD($B77,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O77" s="36">
         <v>9689001</v>
       </c>
-      <c r="P76" s="24">
+      <c r="P77" s="24">
         <f t="shared" si="10"/>
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="48"/>
-      <c r="B77" s="48" t="s">
+    <row r="78" spans="1:16" ht="15" thickBot="1">
+      <c r="A78" s="48"/>
+      <c r="B78" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C78" s="48">
         <v>16</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D78" s="48">
         <v>539</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E78" s="52">
         <v>43119</v>
       </c>
-      <c r="F77" s="49">
+      <c r="F78" s="49">
         <v>0.59583333333333333</v>
       </c>
-      <c r="G77" s="50">
+      <c r="G78" s="50">
         <v>1.4E-2</v>
       </c>
-      <c r="H77" s="48">
+      <c r="H78" s="48">
         <v>540.5</v>
       </c>
-      <c r="I77" s="52">
+      <c r="I78" s="52">
         <v>43122</v>
       </c>
-      <c r="J77" s="49">
+      <c r="J78" s="49">
         <v>0.57013888888888886</v>
       </c>
-      <c r="K77" s="54">
+      <c r="K78" s="54">
         <f t="shared" si="7"/>
         <v>2400</v>
       </c>
-      <c r="L77" s="48"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="11">
-        <f>[1]!WSD($B77,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>100</v>
-      </c>
-      <c r="O77" s="36">
-        <v>9689002</v>
-      </c>
-      <c r="P77" s="24">
-        <f t="shared" ref="P77" si="11">O77*G77/(D77*N77*0.15)</f>
-        <v>16.777492640692639</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>43122</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="1">
-        <v>7</v>
-      </c>
-      <c r="D78" s="1">
-        <v>26130</v>
-      </c>
-      <c r="E78" s="2">
-        <v>43122</v>
-      </c>
-      <c r="F78" s="40">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="G78" s="31">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H78" s="1">
-        <v>26080</v>
-      </c>
-      <c r="I78" s="2">
-        <v>43122</v>
-      </c>
-      <c r="J78" s="40">
-        <v>0.92083333333333339</v>
-      </c>
-      <c r="K78" s="30">
-        <f t="shared" ref="K78:K80" si="12">IF(H78="","",C78*(H78-D78)*N78)</f>
-        <v>-1750</v>
-      </c>
+      <c r="L78" s="48"/>
+      <c r="M78" s="51"/>
       <c r="N78" s="11">
         <f>[1]!WSD($B78,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O78" s="36">
         <v>9689002</v>
       </c>
       <c r="P78" s="24">
-        <f t="shared" ref="P78" si="13">O78*G78/(D78*N78*0.15)</f>
-        <v>7.4159984691924992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P78" si="11">O78*G78/(D78*N78*0.15)</f>
+        <v>16.777492640692639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="14.25">
+      <c r="A79" s="2">
+        <v>43122</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>92</v>
       </c>
@@ -5770,501 +5846,500 @@
         <v>7</v>
       </c>
       <c r="D79" s="1">
-        <v>26105</v>
+        <v>26130</v>
       </c>
       <c r="E79" s="2">
         <v>43122</v>
       </c>
       <c r="F79" s="40">
-        <v>0.97222222222222221</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="G79" s="31">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H79" s="1">
-        <v>26085</v>
+        <v>26080</v>
       </c>
       <c r="I79" s="2">
         <v>43122</v>
       </c>
       <c r="J79" s="40">
-        <v>0.37916666666666665</v>
+        <v>0.92083333333333339</v>
       </c>
       <c r="K79" s="30">
-        <f t="shared" si="12"/>
-        <v>-700</v>
+        <f t="shared" ref="K79:K81" si="12">IF(H79="","",C79*(H79-D79)*N79)</f>
+        <v>-1750</v>
       </c>
       <c r="N79" s="11">
         <f>[1]!WSD($B79,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
       <c r="O79" s="36">
-        <v>9689003</v>
+        <v>9689002</v>
       </c>
       <c r="P79" s="24">
-        <f t="shared" ref="P79:P81" si="14">O79*G79/(D79*N79*0.15)</f>
-        <v>7.4231013215859019</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B80" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="24">
-        <v>43</v>
-      </c>
-      <c r="D80" s="24">
-        <v>5628</v>
+        <f t="shared" ref="P79" si="13">O79*G79/(D79*N79*0.15)</f>
+        <v>7.4159984691924992</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="14.25">
+      <c r="B80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1">
+        <v>26105</v>
       </c>
       <c r="E80" s="2">
         <v>43122</v>
       </c>
-      <c r="F80" s="47">
+      <c r="F80" s="40">
         <v>0.97222222222222221</v>
       </c>
-      <c r="G80" s="34">
-        <v>1.9E-2</v>
-      </c>
-      <c r="H80" s="24">
-        <v>5744</v>
-      </c>
-      <c r="I80" s="35">
-        <v>43125</v>
-      </c>
-      <c r="J80" s="47">
-        <v>0.87708333333333333</v>
-      </c>
-      <c r="K80" s="24">
+      <c r="G80" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>26085</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43122</v>
+      </c>
+      <c r="J80" s="40">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="K80" s="30">
         <f t="shared" si="12"/>
-        <v>24940</v>
-      </c>
-      <c r="L80" s="24"/>
-      <c r="M80" s="36"/>
+        <v>-700</v>
+      </c>
       <c r="N80" s="11">
         <f>[1]!WSD($B80,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
       <c r="O80" s="36">
+        <v>9689003</v>
+      </c>
+      <c r="P80" s="24">
+        <f t="shared" ref="P80:P82" si="14">O80*G80/(D80*N80*0.15)</f>
+        <v>7.4231013215859019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="14.25">
+      <c r="B81" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="24">
+        <v>43</v>
+      </c>
+      <c r="D81" s="24">
+        <v>5628</v>
+      </c>
+      <c r="E81" s="2">
+        <v>43122</v>
+      </c>
+      <c r="F81" s="47">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="G81" s="34">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H81" s="24">
+        <v>5744</v>
+      </c>
+      <c r="I81" s="35">
+        <v>43125</v>
+      </c>
+      <c r="J81" s="47">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="K81" s="24">
+        <f t="shared" si="12"/>
+        <v>24940</v>
+      </c>
+      <c r="L81" s="24"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="11">
+        <f>[1]!WSD($B81,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O81" s="36">
         <v>9689004</v>
       </c>
-      <c r="P80" s="24">
+      <c r="P81" s="24">
         <f t="shared" si="14"/>
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B81" s="24" t="s">
+    <row r="82" spans="1:16" ht="14.25">
+      <c r="B82" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C82" s="1">
         <v>5</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D82" s="1">
         <v>2776</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E82" s="2">
         <v>43122</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F82" s="40">
         <v>0.39861111111111108</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G82" s="31">
         <v>2E-3</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H82" s="1">
         <v>2756</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I82" s="2">
         <v>43123</v>
       </c>
-      <c r="J81" s="40">
+      <c r="J82" s="40">
         <v>0.5708333333333333</v>
       </c>
-      <c r="K81" s="30">
-        <f t="shared" ref="K81:K145" si="15">IF(H81="","",C81*(H81-D81)*N81)</f>
+      <c r="K82" s="30">
+        <f t="shared" ref="K82:K148" si="15">IF(H82="","",C82*(H82-D82)*N82)</f>
         <v>-1000</v>
       </c>
-      <c r="N81" s="11">
-        <f>[1]!WSD($B81,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="N82" s="11">
+        <f>[1]!WSD($B82,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
-      <c r="O81" s="53">
+      <c r="O82" s="53">
         <v>9708000</v>
       </c>
-      <c r="P81" s="24">
+      <c r="P82" s="24">
         <f t="shared" si="14"/>
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3" t="s">
+    <row r="83" spans="1:16" ht="14.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C83" s="3">
         <v>1</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D83" s="3">
         <v>6316.2</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E83" s="33">
         <v>43122</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F83" s="45">
         <v>0.56944444444444442</v>
       </c>
-      <c r="G82" s="32">
+      <c r="G83" s="32">
         <v>1.9E-2</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="11">
-        <f>[1]!WSD($B82,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="11">
+        <f>[1]!WSD($B83,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>200</v>
       </c>
-      <c r="O82" s="53">
+      <c r="O83" s="53">
         <v>9708001</v>
       </c>
-      <c r="P82" s="24">
-        <f t="shared" ref="P82" si="16">O82*G82/(D82*N82*0.15)</f>
+      <c r="P83" s="24">
+        <f t="shared" ref="P83" si="16">O83*G83/(D83*N83*0.15)</f>
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="84" spans="1:16" ht="14.25">
+      <c r="A84" s="2">
         <v>43123</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C84" s="1">
         <v>21</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D84" s="1">
         <v>9480</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E84" s="2">
         <v>43123</v>
       </c>
-      <c r="F83" s="40">
+      <c r="F84" s="40">
         <v>0.37777777777777777</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G84" s="31">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H84" s="1">
         <v>9407</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I84" s="2">
         <v>43123</v>
       </c>
-      <c r="J83" s="40">
+      <c r="J84" s="40">
         <v>0.40833333333333338</v>
       </c>
-      <c r="K83" s="30">
+      <c r="K84" s="30">
         <f t="shared" si="15"/>
         <v>-7665</v>
       </c>
-      <c r="N83" s="11">
-        <f>[1]!WSD($B83,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="N84" s="11">
+        <f>[1]!WSD($B84,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
-      <c r="O83" s="53">
+      <c r="O84" s="53">
         <v>9708002</v>
       </c>
-      <c r="P83" s="24">
-        <f t="shared" ref="P83" si="17">O83*G83/(D83*N83*0.15)</f>
+      <c r="P84" s="24">
+        <f t="shared" ref="P84" si="17">O84*G84/(D84*N84*0.15)</f>
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+    <row r="85" spans="1:16" ht="14.25">
+      <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C85" s="1">
         <v>-12</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D85" s="1">
         <v>98110</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E85" s="2">
         <v>43123</v>
       </c>
-      <c r="F84" s="40">
+      <c r="F85" s="40">
         <v>0.40833333333333338</v>
       </c>
-      <c r="G84" s="31">
+      <c r="G85" s="31">
         <v>1.9E-2</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H85" s="1">
         <v>99540</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I85" s="2">
         <v>43123</v>
       </c>
-      <c r="J84" s="40">
+      <c r="J85" s="40">
         <v>0.62222222222222223</v>
       </c>
-      <c r="K84" s="30">
+      <c r="K85" s="30">
         <f t="shared" si="15"/>
         <v>-17160</v>
       </c>
-      <c r="N84" s="11">
-        <f>[1]!WSD($B84,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+      <c r="N85" s="11">
+        <f>[1]!WSD($B85,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>1</v>
       </c>
-      <c r="O84" s="53">
+      <c r="O85" s="53">
         <v>9708003</v>
       </c>
-      <c r="P84" s="24">
-        <f t="shared" ref="P84" si="18">O84*G84/(D84*N84*0.15)</f>
+      <c r="P85" s="24">
+        <f t="shared" ref="P85" si="18">O85*G85/(D85*N85*0.15)</f>
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:16" ht="14.25">
+      <c r="B86" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C86" s="1">
         <v>-33</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D86" s="1">
         <v>6650.3</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E86" s="2">
         <v>43123</v>
       </c>
-      <c r="F85" s="40">
+      <c r="F86" s="40">
         <v>0.40833333333333338</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G86" s="31">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H86" s="1">
         <v>6686</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I86" s="2">
         <v>43123</v>
       </c>
-      <c r="J85" s="40">
+      <c r="J86" s="40">
         <v>0.5708333333333333</v>
       </c>
-      <c r="K85" s="30">
+      <c r="K86" s="30">
         <f t="shared" si="15"/>
         <v>-5890.49999999997</v>
       </c>
-      <c r="N85" s="11">
-        <f>[1]!WSD($B85,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
-      </c>
-      <c r="O85" s="53">
-        <v>9708004</v>
-      </c>
-      <c r="P85" s="24">
-        <f t="shared" ref="P85" si="19">O85*G85/(D85*N85*0.15)</f>
-        <v>33.088445734277656</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="24">
-        <v>28</v>
-      </c>
-      <c r="D86" s="24">
-        <v>9538</v>
-      </c>
-      <c r="E86" s="2">
-        <v>43123</v>
-      </c>
-      <c r="F86" s="47">
-        <v>0.4694444444444445</v>
-      </c>
-      <c r="G86" s="34">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="H86" s="24">
-        <v>9486</v>
-      </c>
-      <c r="I86" s="35">
-        <v>43124</v>
-      </c>
-      <c r="J86" s="47">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="K86" s="30">
-        <f t="shared" si="15"/>
-        <v>-7280</v>
-      </c>
-      <c r="L86" s="24"/>
-      <c r="M86" s="36"/>
       <c r="N86" s="11">
         <f>[1]!WSD($B86,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
       <c r="O86" s="53">
-        <v>9708005</v>
+        <v>9708004</v>
       </c>
       <c r="P86" s="24">
-        <f t="shared" ref="P86" si="20">O86*G86/(D86*N86*0.15)</f>
-        <v>28.499071084084715</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="3">
-        <v>26</v>
-      </c>
-      <c r="D87" s="3">
-        <v>6740</v>
+        <f t="shared" ref="P86" si="19">O86*G86/(D86*N86*0.15)</f>
+        <v>33.088445734277656</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="14.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="24">
+        <v>28</v>
+      </c>
+      <c r="D87" s="24">
+        <v>9538</v>
       </c>
       <c r="E87" s="2">
         <v>43123</v>
       </c>
-      <c r="F87" s="45">
-        <v>0.59166666666666667</v>
-      </c>
-      <c r="G87" s="32">
-        <v>1.4E-2</v>
-      </c>
-      <c r="H87" s="3">
-        <v>6758</v>
-      </c>
-      <c r="I87" s="33">
-        <v>43125</v>
-      </c>
-      <c r="J87" s="45">
-        <v>0.59652777777777777</v>
-      </c>
-      <c r="K87" s="28">
+      <c r="F87" s="47">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="G87" s="34">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H87" s="24">
+        <v>9486</v>
+      </c>
+      <c r="I87" s="35">
+        <v>43124</v>
+      </c>
+      <c r="J87" s="47">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K87" s="30">
         <f t="shared" si="15"/>
-        <v>2340</v>
-      </c>
-      <c r="L87" s="3"/>
-      <c r="M87" s="4"/>
+        <v>-7280</v>
+      </c>
+      <c r="L87" s="24"/>
+      <c r="M87" s="36"/>
       <c r="N87" s="11">
         <f>[1]!WSD($B87,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
       <c r="O87" s="53">
+        <v>9708005</v>
+      </c>
+      <c r="P87" s="24">
+        <f t="shared" ref="P87" si="20">O87*G87/(D87*N87*0.15)</f>
+        <v>28.499071084084715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="14.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="3">
+        <v>26</v>
+      </c>
+      <c r="D88" s="3">
+        <v>6740</v>
+      </c>
+      <c r="E88" s="33">
+        <v>43123</v>
+      </c>
+      <c r="F88" s="45">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="G88" s="32">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H88" s="3">
+        <v>6758</v>
+      </c>
+      <c r="I88" s="33">
+        <v>43125</v>
+      </c>
+      <c r="J88" s="45">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="K88" s="28">
+        <f t="shared" si="15"/>
+        <v>2340</v>
+      </c>
+      <c r="L88" s="3"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="11">
+        <f>[1]!WSD($B88,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O88" s="53">
         <v>9708006</v>
       </c>
-      <c r="P87" s="24">
-        <f t="shared" ref="P87" si="21">O87*G87/(D87*N87*0.15)</f>
+      <c r="P88" s="24">
+        <f t="shared" ref="P88" si="21">O88*G88/(D88*N88*0.15)</f>
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="89" spans="1:16" ht="14.25">
+      <c r="A89" s="2">
         <v>43124</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B89" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="41">
+      <c r="C89" s="41">
         <v>53</v>
       </c>
-      <c r="D88" s="41">
+      <c r="D89" s="41">
         <v>2787</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E89" s="33">
         <v>43124</v>
       </c>
-      <c r="F88" s="42">
+      <c r="F89" s="42">
         <v>0.89930555555555547</v>
       </c>
-      <c r="G88" s="43">
+      <c r="G89" s="43">
         <v>2.3E-2</v>
       </c>
-      <c r="H88" s="41">
+      <c r="H89" s="41">
         <v>2770</v>
       </c>
-      <c r="I88" s="57">
+      <c r="I89" s="57">
         <v>43124</v>
       </c>
-      <c r="J88" s="42">
+      <c r="J89" s="42">
         <v>0.3840277777777778</v>
       </c>
-      <c r="K88" s="46">
+      <c r="K89" s="46">
         <f t="shared" si="15"/>
         <v>-9010</v>
       </c>
-      <c r="L88" s="41"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="11">
-        <f>[1]!WSD($B88,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
-      </c>
-      <c r="O88" s="53">
-        <v>9708006</v>
-      </c>
-      <c r="P88" s="24">
-        <f t="shared" ref="P88" si="22">O88*G88/(D88*N88*0.15)</f>
-        <v>53.410869034804449</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="1">
-        <v>-6</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2770</v>
-      </c>
-      <c r="E89" s="2">
-        <v>43124</v>
-      </c>
-      <c r="F89" s="40">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="G89" s="31">
-        <f>0.7%*3/4</f>
-        <v>5.2499999999999995E-3</v>
-      </c>
-      <c r="H89" s="1">
-        <v>2781</v>
-      </c>
-      <c r="I89" s="2">
-        <v>43125</v>
-      </c>
-      <c r="J89" s="40">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="K89" s="30">
-        <f t="shared" si="15"/>
-        <v>-660</v>
-      </c>
+      <c r="L89" s="41"/>
+      <c r="M89" s="44"/>
       <c r="N89" s="11">
         <f>[1]!WSD($B89,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O89" s="53">
-        <v>9708007</v>
+        <v>9708006</v>
       </c>
       <c r="P89" s="24">
-        <f t="shared" ref="P89:P91" si="23">O89*G89/(D89*N89*0.15)</f>
-        <v>12.266434837545125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P89" si="22">O89*G89/(D89*N89*0.15)</f>
+        <v>53.410869034804449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="14.25">
       <c r="B90" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C90" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D90" s="58">
+        <v>-6</v>
+      </c>
+      <c r="D90" s="1">
         <v>2770</v>
       </c>
       <c r="E90" s="2">
@@ -6274,143 +6349,144 @@
         <v>0.3840277777777778</v>
       </c>
       <c r="G90" s="31">
-        <f>0.7%*1/4</f>
-        <v>1.7499999999999998E-3</v>
+        <f>0.7%*3/4</f>
+        <v>5.2499999999999995E-3</v>
       </c>
       <c r="H90" s="1">
-        <v>2771</v>
+        <v>2781</v>
       </c>
       <c r="I90" s="2">
-        <v>43124</v>
+        <v>43125</v>
       </c>
       <c r="J90" s="40">
-        <v>0.38472222222222219</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="K90" s="30">
-        <f>IF(H90="","",C90*(H90-D90)*N90)</f>
-        <v>-20</v>
+        <f t="shared" si="15"/>
+        <v>-660</v>
       </c>
       <c r="N90" s="11">
         <f>[1]!WSD($B90,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O90" s="53">
+        <v>9708007</v>
+      </c>
+      <c r="P90" s="24">
+        <f t="shared" ref="P90:P92" si="23">O90*G90/(D90*N90*0.15)</f>
+        <v>12.266434837545125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="14.25">
+      <c r="B91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D91" s="58">
+        <v>2770</v>
+      </c>
+      <c r="E91" s="2">
+        <v>43124</v>
+      </c>
+      <c r="F91" s="40">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="G91" s="31">
+        <f>0.7%*1/4</f>
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2771</v>
+      </c>
+      <c r="I91" s="2">
+        <v>43124</v>
+      </c>
+      <c r="J91" s="40">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="K91" s="30">
+        <f>IF(H91="","",C91*(H91-D91)*N91)</f>
+        <v>-20</v>
+      </c>
+      <c r="N91" s="11">
+        <f>[1]!WSD($B91,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O91" s="53">
         <v>9708008</v>
       </c>
-      <c r="P90" s="24">
+      <c r="P91" s="24">
         <f t="shared" si="23"/>
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="1:16" ht="14.25">
+      <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C92" s="1">
         <v>20</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D92" s="1">
         <v>99360</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E92" s="2">
         <v>43124</v>
       </c>
-      <c r="F91" s="40">
+      <c r="F92" s="40">
         <v>0.38472222222222219</v>
       </c>
-      <c r="G91" s="31">
+      <c r="G92" s="31">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H92" s="1">
         <v>99150</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I92" s="2">
         <v>43124</v>
       </c>
-      <c r="J91" s="40">
+      <c r="J92" s="40">
         <v>0.44444444444444442</v>
       </c>
-      <c r="K91" s="30">
+      <c r="K92" s="30">
         <f t="shared" si="15"/>
         <v>-4200</v>
-      </c>
-      <c r="N91" s="11">
-        <f>[1]!WSD($B91,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>1</v>
-      </c>
-      <c r="O91" s="53">
-        <v>9708009</v>
-      </c>
-      <c r="P91" s="24">
-        <f t="shared" si="23"/>
-        <v>23.449297101449272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92" s="1">
-        <v>20</v>
-      </c>
-      <c r="D92" s="1">
-        <v>99241</v>
-      </c>
-      <c r="E92" s="2">
-        <v>43124</v>
-      </c>
-      <c r="F92" s="40">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="G92" s="31">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H92" s="1">
-        <v>98590</v>
-      </c>
-      <c r="I92" s="2">
-        <v>43124</v>
-      </c>
-      <c r="J92" s="40">
-        <v>0.62013888888888891</v>
-      </c>
-      <c r="K92" s="30">
-        <f t="shared" si="15"/>
-        <v>-13020</v>
       </c>
       <c r="N92" s="11">
         <f>[1]!WSD($B92,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>1</v>
       </c>
       <c r="O92" s="53">
-        <v>9758010</v>
+        <v>9708009</v>
       </c>
       <c r="P92" s="24">
-        <f t="shared" ref="P92" si="24">O92*G92/(D92*N92*0.15)</f>
-        <v>23.598335365423566</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>23.449297101449272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="14.25">
       <c r="B93" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1">
-        <v>9524</v>
+        <v>99241</v>
       </c>
       <c r="E93" s="2">
         <v>43124</v>
       </c>
       <c r="F93" s="40">
-        <v>0.56805555555555554</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="G93" s="31">
-        <v>2.1000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H93" s="1">
-        <v>9495</v>
+        <v>98590</v>
       </c>
       <c r="I93" s="2">
         <v>43124</v>
@@ -6420,41 +6496,41 @@
       </c>
       <c r="K93" s="30">
         <f t="shared" si="15"/>
-        <v>-4060</v>
+        <v>-13020</v>
       </c>
       <c r="N93" s="11">
         <f>[1]!WSD($B93,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O93" s="53">
-        <v>9758011</v>
+        <v>9758010</v>
       </c>
       <c r="P93" s="24">
-        <f t="shared" ref="P93" si="25">O93*G93/(D93*N93*0.15)</f>
-        <v>28.687978580428393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P93" si="24">O93*G93/(D93*N93*0.15)</f>
+        <v>23.598335365423566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="14.25">
       <c r="B94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D94" s="1">
-        <v>1294.5</v>
+        <v>9524</v>
       </c>
       <c r="E94" s="2">
         <v>43124</v>
       </c>
       <c r="F94" s="40">
-        <v>0.58819444444444446</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="G94" s="31">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H94" s="1">
-        <v>1288</v>
+        <v>9495</v>
       </c>
       <c r="I94" s="2">
         <v>43124</v>
@@ -6464,159 +6540,167 @@
       </c>
       <c r="K94" s="30">
         <f t="shared" si="15"/>
-        <v>-11700</v>
+        <v>-4060</v>
       </c>
       <c r="N94" s="11">
         <f>[1]!WSD($B94,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="O94" s="53">
-        <v>9758012</v>
+        <v>9758011</v>
       </c>
       <c r="P94" s="24">
-        <f t="shared" ref="P94" si="26">O94*G94/(D94*N94*0.15)</f>
-        <v>29.31465774001116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P94" si="25">O94*G94/(D94*N94*0.15)</f>
+        <v>28.687978580428393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="14.25">
       <c r="B95" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D95" s="1">
-        <v>2822.3</v>
+        <v>1294.5</v>
       </c>
       <c r="E95" s="2">
         <v>43124</v>
       </c>
       <c r="F95" s="40">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="G95" s="31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1288</v>
+      </c>
+      <c r="I95" s="2">
+        <v>43124</v>
+      </c>
+      <c r="J95" s="40">
         <v>0.62013888888888891</v>
-      </c>
-      <c r="G95" s="31">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H95" s="1">
-        <v>2847</v>
-      </c>
-      <c r="I95" s="2">
-        <v>43125</v>
-      </c>
-      <c r="J95" s="40">
-        <v>0.37986111111111115</v>
       </c>
       <c r="K95" s="30">
         <f t="shared" si="15"/>
-        <v>3210.9999999999764</v>
+        <v>-11700</v>
       </c>
       <c r="N95" s="11">
         <f>[1]!WSD($B95,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="O95" s="53">
-        <v>9758013</v>
+        <v>9758012</v>
       </c>
       <c r="P95" s="24">
-        <f t="shared" ref="P95" si="27">O95*G95/(D95*N95*0.15)</f>
-        <v>13.829873507423025</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96" s="3">
-        <v>-23</v>
-      </c>
-      <c r="D96" s="3">
-        <v>5226</v>
+        <f t="shared" ref="P95" si="26">O95*G95/(D95*N95*0.15)</f>
+        <v>29.31465774001116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="14.25">
+      <c r="B96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="1">
+        <v>13</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2822.3</v>
       </c>
       <c r="E96" s="2">
         <v>43124</v>
       </c>
-      <c r="F96" s="45">
+      <c r="F96" s="40">
         <v>0.62013888888888891</v>
       </c>
-      <c r="G96" s="32">
-        <v>1.9E-2</v>
-      </c>
-      <c r="H96" s="3">
-        <v>5238</v>
-      </c>
-      <c r="I96" s="33">
+      <c r="G96" s="31">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2847</v>
+      </c>
+      <c r="I96" s="2">
         <v>43125</v>
       </c>
-      <c r="J96" s="45">
-        <v>0.87708333333333333</v>
-      </c>
-      <c r="K96" s="28">
+      <c r="J96" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="K96" s="30">
         <f t="shared" si="15"/>
-        <v>-2760</v>
-      </c>
-      <c r="L96" s="3"/>
-      <c r="M96" s="4"/>
+        <v>3210.9999999999764</v>
+      </c>
       <c r="N96" s="11">
         <f>[1]!WSD($B96,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O96" s="53">
-        <v>9758014</v>
+        <v>9758013</v>
       </c>
       <c r="P96" s="24">
-        <f t="shared" ref="P96" si="28">O96*G96/(D96*N96*0.15)</f>
-        <v>23.651264957264956</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+        <f t="shared" ref="P96" si="27">O96*G96/(D96*N96*0.15)</f>
+        <v>13.829873507423025</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="14.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="3">
+        <v>-23</v>
+      </c>
+      <c r="D97" s="3">
+        <v>5226</v>
+      </c>
+      <c r="E97" s="33">
+        <v>43124</v>
+      </c>
+      <c r="F97" s="45">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="G97" s="32">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H97" s="3">
+        <v>5238</v>
+      </c>
+      <c r="I97" s="33">
         <v>43125</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="1">
-        <v>16</v>
-      </c>
-      <c r="D97" s="1">
-        <v>2287</v>
-      </c>
-      <c r="E97" s="2">
-        <v>43125</v>
-      </c>
-      <c r="F97" s="40">
-        <v>0.87916666666666676</v>
-      </c>
-      <c r="G97" s="31">
-        <f>1.7%*1/3</f>
-        <v>5.6666666666666671E-3</v>
-      </c>
-      <c r="K97" s="30" t="str">
+      <c r="J97" s="45">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="K97" s="28">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
+        <v>-2760</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="M97" s="4"/>
       <c r="N97" s="11">
         <f>[1]!WSD($B97,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O97" s="53">
-        <v>9758015</v>
+        <v>9758014</v>
       </c>
       <c r="P97" s="24">
-        <f t="shared" ref="P97" si="29">O97*G97/(D97*N97*0.15)</f>
-        <v>16.118763542729436</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P97" si="28">O97*G97/(D97*N97*0.15)</f>
+        <v>23.651264957264956</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="14.25">
+      <c r="A98" s="2">
+        <v>43125</v>
+      </c>
       <c r="B98" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C98" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1">
-        <v>99710</v>
+        <v>2287</v>
       </c>
       <c r="E98" s="2">
         <v>43125</v>
@@ -6625,121 +6709,145 @@
         <v>0.87916666666666676</v>
       </c>
       <c r="G98" s="31">
+        <f>1.7%*1/3</f>
+        <v>5.6666666666666671E-3</v>
+      </c>
+      <c r="H98" s="1">
+        <v>2295</v>
+      </c>
+      <c r="I98" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J98" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="K98" s="30">
+        <f t="shared" si="15"/>
+        <v>1280</v>
+      </c>
+      <c r="N98" s="11">
+        <f>[1]!WSD($B98,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O98" s="53">
+        <v>9758015</v>
+      </c>
+      <c r="P98" s="24">
+        <f t="shared" ref="P98" si="29">O98*G98/(D98*N98*0.15)</f>
+        <v>16.118763542729436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="14.25">
+      <c r="B99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="1">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1">
+        <v>99710</v>
+      </c>
+      <c r="E99" s="2">
+        <v>43125</v>
+      </c>
+      <c r="F99" s="40">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="G99" s="31">
         <f>3.7%*1/2</f>
         <v>1.8500000000000003E-2</v>
       </c>
-      <c r="K98" s="30" t="str">
+      <c r="H99" s="1">
+        <v>103760</v>
+      </c>
+      <c r="I99" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J99" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="K99" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N98" s="11">
-        <f>[1]!WSD($B98,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>48600</v>
+      </c>
+      <c r="N99" s="11">
+        <f>[1]!WSD($B99,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>1</v>
       </c>
-      <c r="O98" s="53">
+      <c r="O99" s="53">
         <v>9758016</v>
       </c>
-      <c r="P98" s="24">
-        <f t="shared" ref="P98" si="30">O98*G98/(D98*N98*0.15)</f>
+      <c r="P99" s="24">
+        <f t="shared" ref="P99" si="30">O99*G99/(D99*N99*0.15)</f>
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+    <row r="100" spans="1:16" ht="14.25">
+      <c r="B100" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C100" s="3">
         <v>15</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D100" s="3">
         <v>1290</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E100" s="33">
         <v>43125</v>
       </c>
-      <c r="F99" s="45">
+      <c r="F100" s="45">
         <v>0.87916666666666676</v>
       </c>
-      <c r="G99" s="32">
+      <c r="G100" s="32">
         <f>3.5%*1/2</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="28" t="str">
+      <c r="H100" s="3">
+        <v>1306</v>
+      </c>
+      <c r="I100" s="33">
+        <v>43126</v>
+      </c>
+      <c r="J100" s="45">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="K100" s="28">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L99" s="3"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="11">
-        <f>[1]!WSD($B99,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>14400</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="11">
+        <f>[1]!WSD($B100,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>60</v>
       </c>
-      <c r="O99" s="53">
+      <c r="O100" s="53">
         <v>9758017</v>
       </c>
-      <c r="P99" s="24">
-        <f t="shared" ref="P99" si="31">O99*G99/(D99*N99*0.15)</f>
+      <c r="P100" s="24">
+        <f t="shared" ref="P100" si="31">O100*G100/(D100*N100*0.15)</f>
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="1:16" ht="14.25">
+      <c r="B101" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C101" s="1">
         <v>16</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D101" s="1">
         <v>5778</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E101" s="2">
         <v>43125</v>
       </c>
-      <c r="F100" s="40">
+      <c r="F101" s="40">
         <v>0.37986111111111115</v>
       </c>
-      <c r="G100" s="31">
+      <c r="G101" s="31">
         <f>2.2%*1/3</f>
         <v>7.3333333333333341E-3</v>
-      </c>
-      <c r="K100" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N100" s="11">
-        <f>[1]!WSD($B100,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
-      </c>
-      <c r="O100" s="53">
-        <v>9758018</v>
-      </c>
-      <c r="P100" s="24">
-        <f t="shared" ref="P100" si="32">O100*G100/(D100*N100*0.15)</f>
-        <v>16.512933810238067</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="1">
-        <v>9</v>
-      </c>
-      <c r="D101" s="1">
-        <v>26220</v>
-      </c>
-      <c r="E101" s="2">
-        <v>43125</v>
-      </c>
-      <c r="F101" s="40">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="G101" s="31">
-        <f>3.4%*0.5</f>
-        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K101" s="30" t="str">
         <f t="shared" si="15"/>
@@ -6750,22 +6858,22 @@
         <v>5</v>
       </c>
       <c r="O101" s="53">
-        <v>9758019</v>
+        <v>9758018</v>
       </c>
       <c r="P101" s="24">
-        <f t="shared" ref="P101" si="33">O101*G101/(D101*N101*0.15)</f>
-        <v>8.4356126620900085</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P101" si="32">O101*G101/(D101*N101*0.15)</f>
+        <v>16.512933810238067</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="14.25">
       <c r="B102" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="1">
-        <v>9955</v>
+        <v>26220</v>
       </c>
       <c r="E102" s="2">
         <v>43125</v>
@@ -6774,34 +6882,43 @@
         <v>0.37986111111111115</v>
       </c>
       <c r="G102" s="31">
-        <f>2%*0.5</f>
-        <v>0.01</v>
-      </c>
-      <c r="K102" s="30" t="str">
+        <f>3.4%*0.5</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H102" s="1">
+        <v>26140</v>
+      </c>
+      <c r="I102" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J102" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="K102" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-3600</v>
       </c>
       <c r="N102" s="11">
         <f>[1]!WSD($B102,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
       <c r="O102" s="53">
-        <v>9758020</v>
+        <v>9758019</v>
       </c>
       <c r="P102" s="24">
-        <f t="shared" ref="P102" si="34">O102*G102/(D102*N102*0.15)</f>
-        <v>13.069506110832076</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P102" si="33">O102*G102/(D102*N102*0.15)</f>
+        <v>8.4356126620900085</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="14.25">
       <c r="B103" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="1">
-        <v>1485</v>
+        <v>9955</v>
       </c>
       <c r="E103" s="2">
         <v>43125</v>
@@ -6810,69 +6927,88 @@
         <v>0.37986111111111115</v>
       </c>
       <c r="G103" s="31">
+        <f>2%*0.5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H103" s="1">
+        <v>9925</v>
+      </c>
+      <c r="I103" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J103" s="40">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="K103" s="30">
+        <f t="shared" si="15"/>
+        <v>-1950</v>
+      </c>
+      <c r="N103" s="11">
+        <f>[1]!WSD($B103,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O103" s="53">
+        <v>9758020</v>
+      </c>
+      <c r="P103" s="24">
+        <f t="shared" ref="P103" si="34">O103*G103/(D103*N103*0.15)</f>
+        <v>13.069506110832076</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="14.25">
+      <c r="B104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="1">
+        <v>14</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1485</v>
+      </c>
+      <c r="E104" s="2">
+        <v>43125</v>
+      </c>
+      <c r="F104" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="G104" s="31">
         <f>1.9%*1/3</f>
         <v>6.3333333333333332E-3</v>
       </c>
-      <c r="K103" s="30" t="str">
+      <c r="H104" s="1">
+        <v>1483</v>
+      </c>
+      <c r="I104" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J104" s="40">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="K104" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N103" s="11">
-        <f>[1]!WSD($B103,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>20</v>
-      </c>
-      <c r="O103" s="53">
-        <v>9758021</v>
-      </c>
-      <c r="P103" s="24">
-        <f t="shared" ref="P103" si="35">O103*G103/(D103*N103*0.15)</f>
-        <v>13.872233370744482</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="1">
-        <v>12</v>
-      </c>
-      <c r="D104" s="1">
-        <v>9554</v>
-      </c>
-      <c r="E104" s="2">
-        <v>43125</v>
-      </c>
-      <c r="F104" s="40">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="G104" s="31">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K104" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>-560</v>
       </c>
       <c r="N104" s="11">
         <f>[1]!WSD($B104,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O104" s="53">
-        <v>9758022</v>
+        <v>9758021</v>
       </c>
       <c r="P104" s="24">
-        <f t="shared" ref="P104" si="36">O104*G104/(D104*N104*0.15)</f>
-        <v>12.256255390412392</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P104" si="35">O104*G104/(D104*N104*0.15)</f>
+        <v>13.872233370744482</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="14.25">
       <c r="B105" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C105" s="1">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1">
-        <v>5234</v>
+        <v>9554</v>
       </c>
       <c r="E105" s="2">
         <v>43125</v>
@@ -6881,79 +7017,87 @@
         <v>0.37986111111111115</v>
       </c>
       <c r="G105" s="31">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H105" s="1">
+        <v>9512</v>
+      </c>
+      <c r="I105" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J105" s="40">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="K105" s="30">
+        <f t="shared" si="15"/>
+        <v>-2520</v>
+      </c>
+      <c r="N105" s="11">
+        <f>[1]!WSD($B105,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O105" s="53">
+        <v>9758022</v>
+      </c>
+      <c r="P105" s="24">
+        <f t="shared" ref="P105" si="36">O105*G105/(D105*N105*0.15)</f>
+        <v>12.256255390412392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="14.25">
+      <c r="B106" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D106" s="1">
+        <v>5234</v>
+      </c>
+      <c r="E106" s="2">
+        <v>43125</v>
+      </c>
+      <c r="F106" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="G106" s="31">
         <f>1.3%*1/3</f>
         <v>4.333333333333334E-3</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H106" s="1">
         <v>5230</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I106" s="2">
         <v>43125</v>
       </c>
-      <c r="J105" s="40">
+      <c r="J106" s="40">
         <v>0.56597222222222221</v>
       </c>
-      <c r="K105" s="30">
+      <c r="K106" s="30">
         <f t="shared" si="15"/>
         <v>240</v>
-      </c>
-      <c r="N105" s="11">
-        <f>[1]!WSD($B105,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
-      </c>
-      <c r="O105" s="53">
-        <v>9758023</v>
-      </c>
-      <c r="P105" s="24">
-        <f t="shared" ref="P105" si="37">O105*G105/(D105*N105*0.15)</f>
-        <v>5.3859083343947702</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-11</v>
-      </c>
-      <c r="D106" s="1">
-        <v>2089</v>
-      </c>
-      <c r="E106" s="2">
-        <v>43125</v>
-      </c>
-      <c r="F106" s="40">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="G106" s="31">
-        <f>1.1%*1/3</f>
-        <v>3.666666666666667E-3</v>
-      </c>
-      <c r="K106" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v/>
       </c>
       <c r="N106" s="11">
         <f>[1]!WSD($B106,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O106" s="53">
-        <v>9800000</v>
+        <v>9758023</v>
       </c>
       <c r="P106" s="24">
-        <f t="shared" ref="P106" si="38">O106*G106/(D106*N106*0.15)</f>
-        <v>11.467475134301369</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P106" si="37">O106*G106/(D106*N106*0.15)</f>
+        <v>5.3859083343947702</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="14.25">
       <c r="B107" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" s="1">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="D107" s="1">
-        <v>91.71</v>
+        <v>2089</v>
       </c>
       <c r="E107" s="2">
         <v>43125</v>
@@ -6962,1649 +7106,2002 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="G107" s="31">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K107" s="30" t="str">
+        <f>1.1%*1/3</f>
+        <v>3.666666666666667E-3</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2088</v>
+      </c>
+      <c r="I107" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J107" s="40">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="K107" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>110</v>
       </c>
       <c r="N107" s="11">
         <f>[1]!WSD($B107,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="O107" s="53">
-        <v>9800001</v>
+        <v>9800000</v>
       </c>
       <c r="P107" s="24">
-        <f t="shared" ref="P107" si="39">O107*G107/(D107*N107*0.15)</f>
-        <v>1.2823030421982338</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C108" s="3">
+        <f t="shared" ref="P107" si="38">O107*G107/(D107*N107*0.15)</f>
+        <v>11.467475134301369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="14.25">
+      <c r="B108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="1">
         <v>-1</v>
       </c>
-      <c r="D108" s="3">
-        <v>95.83</v>
-      </c>
-      <c r="E108" s="33">
+      <c r="D108" s="1">
+        <v>91.71</v>
+      </c>
+      <c r="E108" s="2">
         <v>43125</v>
       </c>
-      <c r="F108" s="45">
-        <v>0.47152777777777777</v>
-      </c>
-      <c r="G108" s="32">
-        <v>0.02</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="28" t="str">
+      <c r="F108" s="40">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="G108" s="31">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>91.875</v>
+      </c>
+      <c r="I108" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J108" s="40">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="K108" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L108" s="3"/>
-      <c r="M108" s="4"/>
+        <v>-1650.0000000000625</v>
+      </c>
       <c r="N108" s="11">
         <f>[1]!WSD($B108,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10000</v>
       </c>
       <c r="O108" s="53">
+        <v>9800001</v>
+      </c>
+      <c r="P108" s="24">
+        <f t="shared" ref="P108" si="39">O108*G108/(D108*N108*0.15)</f>
+        <v>1.2823030421982338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="14.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D109" s="3">
+        <v>95.83</v>
+      </c>
+      <c r="E109" s="33">
+        <v>43125</v>
+      </c>
+      <c r="F109" s="45">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="G109" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="H109" s="3">
+        <v>95.965000000000003</v>
+      </c>
+      <c r="I109" s="33">
+        <v>43126</v>
+      </c>
+      <c r="J109" s="45">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="K109" s="28">
+        <f t="shared" si="15"/>
+        <v>-1350.0000000000512</v>
+      </c>
+      <c r="L109" s="3"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="11">
+        <f>[1]!WSD($B109,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10000</v>
+      </c>
+      <c r="O109" s="53">
         <v>9800002</v>
       </c>
-      <c r="P108" s="24">
-        <f t="shared" ref="P108" si="40">O108*G108/(D108*N108*0.15)</f>
+      <c r="P109" s="24">
+        <f t="shared" ref="P109" si="40">O109*G109/(D109*N109*0.15)</f>
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+    <row r="110" spans="1:16" ht="14.25">
+      <c r="A110" s="2">
         <v>43126</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C110" s="41">
         <v>6</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D110" s="41">
         <v>2055.5</v>
       </c>
-      <c r="G109" s="31">
+      <c r="E110" s="57">
+        <v>43125</v>
+      </c>
+      <c r="F110" s="42">
+        <v>0.88263888888888886</v>
+      </c>
+      <c r="G110" s="43">
         <f>4.3%*1/2</f>
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="K109" s="30" t="str">
+      <c r="H110" s="41">
+        <v>2044.5</v>
+      </c>
+      <c r="I110" s="57">
+        <v>43126</v>
+      </c>
+      <c r="J110" s="42">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="K110" s="46">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N109" s="11">
-        <f>[1]!WSD($B109,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>-6600</v>
+      </c>
+      <c r="L110" s="41"/>
+      <c r="M110" s="44"/>
+      <c r="N110" s="11">
+        <f>[1]!WSD($B110,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>100</v>
       </c>
-      <c r="O109" s="53">
-        <v>9800003</v>
-      </c>
-      <c r="P109" s="24">
-        <f t="shared" ref="P109" si="41">O109*G109/(D109*N109*0.15)</f>
-        <v>6.8337003000081076</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K110" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O110" s="53">
+        <v>9777000</v>
+      </c>
+      <c r="P110" s="24">
+        <f t="shared" ref="P110" si="41">O110*G110/(D110*N110*0.15)</f>
+        <v>6.8176599367550468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="14.25">
+      <c r="B111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="1">
+        <v>-13</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3685</v>
+      </c>
+      <c r="E111" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F111" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="G111" s="31">
+        <f>2.4%*1/3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="K111" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N111" s="11">
+        <f>[1]!WSD($B111,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O111" s="53">
+        <v>9777001</v>
+      </c>
+      <c r="P111" s="24">
+        <f t="shared" ref="P111" si="42">O111*G111/(D111*N111*0.15)</f>
+        <v>14.15034066033469</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="14.25">
+      <c r="B112" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2835</v>
+      </c>
+      <c r="E112" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F112" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="G112" s="31">
+        <f>0.2%*1/3</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
       <c r="K112" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="N112" s="11">
+        <f>[1]!WSD($B112,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O112" s="53">
+        <v>9777002</v>
+      </c>
+      <c r="P112" s="24">
+        <f t="shared" ref="P112" si="43">O112*G112/(D112*N112*0.15)</f>
+        <v>1.5327457573976091</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="14.25">
+      <c r="B113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="1">
+        <v>-11</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2759</v>
+      </c>
+      <c r="E113" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F113" s="40">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="G113" s="31">
+        <f>1.4%*1/3</f>
+        <v>4.6666666666666662E-3</v>
+      </c>
       <c r="K113" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="N113" s="11">
+        <f>[1]!WSD($B113,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O113" s="53">
+        <v>9777003</v>
+      </c>
+      <c r="P113" s="24">
+        <f t="shared" ref="P113" si="44">O113*G113/(D113*N113*0.15)</f>
+        <v>11.024770810680197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="14.25">
+      <c r="B114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="1">
+        <v>24</v>
+      </c>
+      <c r="D114" s="1">
+        <v>668.6</v>
+      </c>
+      <c r="E114" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F114" s="40">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="G114" s="31">
+        <f>5%*0.5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="K114" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K115" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K116" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="N114" s="11">
+        <f>[1]!WSD($B114,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="O114" s="53">
+        <v>9777004</v>
+      </c>
+      <c r="P114" s="24">
+        <f t="shared" ref="P114" si="45">O114*G114/(D114*N114*0.15)</f>
+        <v>24.371831688104496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="14.25">
+      <c r="B115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>4406.8</v>
+      </c>
+      <c r="E115" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F115" s="40">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="G115" s="31">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K115" s="30"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="53"/>
+      <c r="P115" s="24"/>
+    </row>
+    <row r="116" spans="1:16" ht="14.25">
+      <c r="B116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3197.4</v>
+      </c>
+      <c r="E116" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F116" s="40">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="G116" s="31">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K116" s="30"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="53"/>
+      <c r="P116" s="24"/>
+    </row>
+    <row r="117" spans="1:16" ht="14.25">
+      <c r="B117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D117" s="1">
+        <v>14800</v>
+      </c>
+      <c r="E117" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F117" s="40">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="G117" s="31">
+        <f>2.3%*0.5</f>
+        <v>1.15E-2</v>
+      </c>
       <c r="K117" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K118" s="30" t="str">
+      <c r="N117" s="11">
+        <f>[1]!WSD($B117,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O117" s="53">
+        <v>9777005</v>
+      </c>
+      <c r="P117" s="24">
+        <f t="shared" ref="P117" si="46">O117*G117/(D117*N117*0.15)</f>
+        <v>10.129329504504504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="14.25">
+      <c r="B118" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="1">
+        <v>7</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2053</v>
+      </c>
+      <c r="E118" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F118" s="40">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="G118" s="31">
+        <f>4.3%*0.5</f>
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="H118" s="1">
+        <v>2043.5</v>
+      </c>
+      <c r="I118" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J118" s="40">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="K118" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K119" s="30" t="str">
+        <v>-6650</v>
+      </c>
+      <c r="N118" s="11">
+        <f>[1]!WSD($B118,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="O118" s="53">
+        <v>9777006</v>
+      </c>
+      <c r="P118" s="24">
+        <f t="shared" ref="P118" si="47">O118*G118/(D118*N118*0.15)</f>
+        <v>6.8259661958110076</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="15" thickBot="1">
+      <c r="A119" s="48"/>
+      <c r="B119" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="48">
+        <v>9</v>
+      </c>
+      <c r="D119" s="48">
+        <v>10020</v>
+      </c>
+      <c r="E119" s="52">
+        <v>43126</v>
+      </c>
+      <c r="F119" s="49">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="G119" s="50">
+        <f>2%*1/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="54" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="48"/>
+      <c r="M119" s="51"/>
+      <c r="N119" s="11">
+        <f>[1]!WSD($B119,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O119" s="53">
+        <v>9777007</v>
+      </c>
+      <c r="P119" s="24">
+        <f t="shared" ref="P119" si="48">O119*G119/(D119*N119*0.15)</f>
+        <v>8.6733262364160577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="2">
+        <v>43129</v>
+      </c>
       <c r="K120" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="K121" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="K122" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="K123" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="K124" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="K125" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="K126" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="K127" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="K128" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="11:11">
       <c r="K129" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="11:11">
       <c r="K130" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="11:11">
       <c r="K131" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="11:11">
       <c r="K132" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="11:11">
       <c r="K133" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="11:11">
       <c r="K134" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="11:11">
       <c r="K135" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="11:11">
       <c r="K136" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="11:11">
       <c r="K137" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="11:11">
       <c r="K138" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="11:11">
       <c r="K139" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="11:11">
       <c r="K140" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="11:11">
       <c r="K141" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="11:11">
       <c r="K142" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="11:11">
       <c r="K143" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="11:11">
       <c r="K144" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="11:11">
       <c r="K145" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="11:11">
       <c r="K146" s="30" t="str">
-        <f t="shared" ref="K146:K209" si="42">IF(H146="","",C146*(H146-D146)*N146)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="11:11">
       <c r="K147" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="11:11">
       <c r="K148" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="11:11">
       <c r="K149" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K149:K212" si="49">IF(H149="","",C149*(H149-D149)*N149)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:11">
       <c r="K150" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:11">
       <c r="K151" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:11">
       <c r="K152" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:11">
       <c r="K153" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:11">
       <c r="K154" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:11">
       <c r="K155" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:11">
       <c r="K156" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:11">
       <c r="K157" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:11">
       <c r="K158" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:11">
       <c r="K159" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:11">
       <c r="K160" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11">
       <c r="K161" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11">
       <c r="K162" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11">
       <c r="K163" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11">
       <c r="K164" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11">
       <c r="K165" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11">
       <c r="K166" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11">
       <c r="K167" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11">
       <c r="K168" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11">
       <c r="K169" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11">
       <c r="K170" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11">
       <c r="K171" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11">
       <c r="K172" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11">
       <c r="K173" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11">
       <c r="K174" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11">
       <c r="K175" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11">
       <c r="K176" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11">
       <c r="K177" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11">
       <c r="K178" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11">
       <c r="K179" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11">
       <c r="K180" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11">
       <c r="K181" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11">
       <c r="K182" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11">
       <c r="K183" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11">
       <c r="K184" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11">
       <c r="K185" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11">
       <c r="K186" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11">
       <c r="K187" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11">
       <c r="K188" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11">
       <c r="K189" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11">
       <c r="K190" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11">
       <c r="K191" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:11">
       <c r="K192" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:11">
       <c r="K193" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:11">
       <c r="K194" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:11">
       <c r="K195" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:11">
       <c r="K196" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:11">
       <c r="K197" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:11">
       <c r="K198" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:11">
       <c r="K199" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:11">
       <c r="K200" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:11">
       <c r="K201" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:11">
       <c r="K202" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:11">
       <c r="K203" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:11">
       <c r="K204" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:11">
       <c r="K205" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:11">
       <c r="K206" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:11">
       <c r="K207" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:11">
       <c r="K208" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:11">
       <c r="K209" s="30" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:11">
       <c r="K210" s="30" t="str">
-        <f t="shared" ref="K210:K273" si="43">IF(H210="","",C210*(H210-D210)*N210)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:11">
       <c r="K211" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:11">
       <c r="K212" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11">
       <c r="K213" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K213:K276" si="50">IF(H213="","",C213*(H213-D213)*N213)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11">
       <c r="K214" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11">
       <c r="K215" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11">
       <c r="K216" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:11">
       <c r="K217" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:11">
       <c r="K218" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:11">
       <c r="K219" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:11">
       <c r="K220" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:11">
       <c r="K221" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:11">
       <c r="K222" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:11">
       <c r="K223" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:11">
       <c r="K224" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:11">
       <c r="K225" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:11">
       <c r="K226" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:11">
       <c r="K227" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:11">
       <c r="K228" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:11">
       <c r="K229" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:11">
       <c r="K230" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:11">
       <c r="K231" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:11">
       <c r="K232" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:11">
       <c r="K233" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:11">
       <c r="K234" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:11">
       <c r="K235" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:11">
       <c r="K236" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:11">
       <c r="K237" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="11:11">
       <c r="K238" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="11:11">
       <c r="K239" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="11:11">
       <c r="K240" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="11:11">
       <c r="K241" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="11:11">
       <c r="K242" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="11:11">
       <c r="K243" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="11:11">
       <c r="K244" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="11:11">
       <c r="K245" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="11:11">
       <c r="K246" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="11:11">
       <c r="K247" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="11:11">
       <c r="K248" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="11:11">
       <c r="K249" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="11:11">
       <c r="K250" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="11:11">
       <c r="K251" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="11:11">
       <c r="K252" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="11:11">
       <c r="K253" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="11:11">
       <c r="K254" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="11:11">
       <c r="K255" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="11:11">
       <c r="K256" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="11:11">
       <c r="K257" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="11:11">
       <c r="K258" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="11:11">
       <c r="K259" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="11:11">
       <c r="K260" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="11:11">
       <c r="K261" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="11:11">
       <c r="K262" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="11:11">
       <c r="K263" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="11:11">
       <c r="K264" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="11:11">
       <c r="K265" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="11:11">
       <c r="K266" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="11:11">
       <c r="K267" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="11:11">
       <c r="K268" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="11:11">
       <c r="K269" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="11:11">
       <c r="K270" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="11:11">
       <c r="K271" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="11:11">
       <c r="K272" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="11:11">
       <c r="K273" s="30" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="11:11">
       <c r="K274" s="30" t="str">
-        <f t="shared" ref="K274:K337" si="44">IF(H274="","",C274*(H274-D274)*N274)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="11:11">
       <c r="K275" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="11:11">
       <c r="K276" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="11:11">
       <c r="K277" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K277:K340" si="51">IF(H277="","",C277*(H277-D277)*N277)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="11:11">
       <c r="K278" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="11:11">
       <c r="K279" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="11:11">
       <c r="K280" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="11:11">
       <c r="K281" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="11:11">
       <c r="K282" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="11:11">
       <c r="K283" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="11:11">
       <c r="K284" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="11:11">
       <c r="K285" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="11:11">
       <c r="K286" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="11:11">
       <c r="K287" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="11:11">
       <c r="K288" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="11:11">
       <c r="K289" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="11:11">
       <c r="K290" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="11:11">
       <c r="K291" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="11:11">
       <c r="K292" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="11:11">
       <c r="K293" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="11:11">
       <c r="K294" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="11:11">
       <c r="K295" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="11:11">
       <c r="K296" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="11:11">
       <c r="K297" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="11:11">
       <c r="K298" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="11:11">
       <c r="K299" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="11:11">
       <c r="K300" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="11:11">
       <c r="K301" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="11:11">
       <c r="K302" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="11:11">
       <c r="K303" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="11:11">
       <c r="K304" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="11:11">
       <c r="K305" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="11:11">
       <c r="K306" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="11:11">
       <c r="K307" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="11:11">
       <c r="K308" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="11:11">
       <c r="K309" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="11:11">
       <c r="K310" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="11:11">
       <c r="K311" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="11:11">
       <c r="K312" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="11:11">
       <c r="K313" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="11:11">
       <c r="K314" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="11:11">
       <c r="K315" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="11:11">
       <c r="K316" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="11:11">
       <c r="K317" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="11:11">
       <c r="K318" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="11:11">
       <c r="K319" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="11:11">
       <c r="K320" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="11:11">
       <c r="K321" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="11:11">
       <c r="K322" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="11:11">
       <c r="K323" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="11:11">
       <c r="K324" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="11:11">
       <c r="K325" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="11:11">
       <c r="K326" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="11:11">
       <c r="K327" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="11:11">
       <c r="K328" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="11:11">
       <c r="K329" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="11:11">
       <c r="K330" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="11:11">
       <c r="K331" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="11:11">
       <c r="K332" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="11:11">
       <c r="K333" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="11:11">
       <c r="K334" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="11:11">
       <c r="K335" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="11:11">
       <c r="K336" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="11:11">
       <c r="K337" s="30" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="11:11">
       <c r="K338" s="30" t="str">
-        <f t="shared" ref="K338:K368" si="45">IF(H338="","",C338*(H338-D338)*N338)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="11:11">
       <c r="K339" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="11:11">
       <c r="K340" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="11:11">
       <c r="K341" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K341:K371" si="52">IF(H341="","",C341*(H341-D341)*N341)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="11:11">
       <c r="K342" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="11:11">
       <c r="K343" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="11:11">
       <c r="K344" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="11:11">
       <c r="K345" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="11:11">
       <c r="K346" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="11:11">
       <c r="K347" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="11:11">
       <c r="K348" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="11:11">
       <c r="K349" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="11:11">
       <c r="K350" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="11:11">
       <c r="K351" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="11:11">
       <c r="K352" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="11:11">
       <c r="K353" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="11:11">
       <c r="K354" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="11:11">
       <c r="K355" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="11:11">
       <c r="K356" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="11:11">
       <c r="K357" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="11:11">
       <c r="K358" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="11:11">
       <c r="K359" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="11:11">
       <c r="K360" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="11:11">
       <c r="K361" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="11:11">
       <c r="K362" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="11:11">
       <c r="K363" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="11:11">
       <c r="K364" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="11:11">
       <c r="K365" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="11:11">
       <c r="K366" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="11:11">
       <c r="K367" s="30" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="11:11">
       <c r="K368" s="30" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="11:11">
+      <c r="K369" s="30" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="11:11">
+      <c r="K370" s="30" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="11:11">
+      <c r="K371" s="30" t="str">
+        <f t="shared" si="52"/>
         <v/>
       </c>
     </row>
@@ -8624,13 +9121,13 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8663,7 +9160,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -8695,7 +9192,7 @@
         <v>13770</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
@@ -8727,7 +9224,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -8759,7 +9256,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
@@ -8791,7 +9288,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -8823,7 +9320,7 @@
         <v>-20520</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -8855,7 +9352,7 @@
         <v>-4720</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -8887,7 +9384,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -8913,7 +9410,7 @@
         <v>71820.000000000029</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="24" t="s">
         <v>104</v>
       </c>
@@ -8945,7 +9442,7 @@
         <v>-11700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="24" t="s">
         <v>101</v>
       </c>
@@ -8978,7 +9475,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="24" t="s">
         <v>99</v>
       </c>
@@ -9010,7 +9507,7 @@
         <v>-9010</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
@@ -9042,7 +9539,7 @@
         <v>3210.9999999999764</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -9074,7 +9571,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
@@ -9106,7 +9603,7 @@
         <v>-4200</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -9138,7 +9635,7 @@
         <v>-11109.960000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -9170,7 +9667,7 @@
         <v>-13020</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -9202,7 +9699,7 @@
         <v>-17160</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -9234,7 +9731,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -9267,7 +9764,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
@@ -9299,7 +9796,7 @@
         <v>-2760</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="24" t="s">
         <v>103</v>
       </c>
@@ -9331,7 +9828,7 @@
         <v>-4060</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="24" t="s">
         <v>96</v>
       </c>
@@ -9363,7 +9860,7 @@
         <v>-7280</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="24" t="s">
         <v>96</v>
       </c>
@@ -9395,7 +9892,7 @@
         <v>-7665</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -9427,7 +9924,7 @@
         <v>15340</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -9459,7 +9956,7 @@
         <v>-6720</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -9491,7 +9988,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -9523,7 +10020,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
@@ -9555,7 +10052,7 @@
         <v>-5890.49999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
@@ -9587,7 +10084,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="24" t="s">
         <v>92</v>
       </c>
@@ -9619,7 +10116,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -9670,17 +10167,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9705,7 +10202,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -9728,7 +10225,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -9748,7 +10245,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -9768,7 +10265,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -9791,7 +10288,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -9814,7 +10311,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -9834,7 +10331,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -9854,7 +10351,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -9877,7 +10374,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -9900,7 +10397,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -9920,7 +10417,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -9940,7 +10437,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -9960,7 +10457,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>30</v>
@@ -9998,15 +10495,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -10038,7 +10535,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -10068,7 +10565,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -10098,7 +10595,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -10128,7 +10625,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -10158,7 +10655,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -10188,7 +10685,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -10218,7 +10715,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -10248,7 +10745,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -10278,7 +10775,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -10308,7 +10805,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -10338,7 +10835,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -10368,7 +10865,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -10395,7 +10892,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -10422,7 +10919,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -10449,7 +10946,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -10476,7 +10973,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -10503,7 +11000,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -10530,7 +11027,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -10557,7 +11054,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -10584,7 +11081,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -10611,7 +11108,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -10638,7 +11135,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -10665,7 +11162,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -10692,7 +11189,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -10719,7 +11216,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -10746,7 +11243,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -10773,7 +11270,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -10800,7 +11297,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -10827,7 +11324,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -10854,7 +11351,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -10881,7 +11378,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -10908,7 +11405,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -10935,7 +11432,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -10962,7 +11459,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -10989,7 +11486,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -11016,7 +11513,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -11043,7 +11540,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -11070,7 +11567,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -11097,7 +11594,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -11124,7 +11621,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -11151,7 +11648,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -11178,7 +11675,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -11205,7 +11702,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -11232,7 +11729,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -11259,31 +11756,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/模拟盘/SimulationTrading.xlsx
+++ b/模拟盘/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="141">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,13 +561,21 @@
   </si>
   <si>
     <t>IH1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZN1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BU1806</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -576,7 +584,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,7 +878,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1090,7 +1098,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1260,7 +1268,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1337,7 +1345,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -2638,7 +2646,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +2682,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,17 +2994,17 @@
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3020,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3031,7 +3039,7 @@
         <v>0.23655913978494625</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3047,10 +3055,10 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!S1/成交记录!T1</f>
-        <v>0.7730872127617765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.78979603710160129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3062,85 +3070,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3152,7 +3160,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3176,7 +3184,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3188,7 +3196,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3200,7 +3208,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3224,7 +3232,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3236,7 +3244,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3248,34 +3256,34 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
       <c r="B26" s="55"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3295,28 +3303,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="1.875" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3375,11 +3383,11 @@
       </c>
       <c r="T1" s="13">
         <f>ABS(SUMIF(K2:K9988,"&lt;0"))</f>
-        <v>561555.66000000027</v>
+        <v>549675.46000000031</v>
       </c>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3402,17 +3410,17 @@
         <v>43096</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="30">
+      <c r="K2" s="30" t="e">
         <f>IF(H2="","",C2*(H2-D2)*N2)</f>
-        <v>-13980.199999999995</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L2" s="1">
         <f>I2-$A$2</f>
         <v>2</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="11" t="str">
         <f>[1]!WSD($B2,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="P2" s="12" t="s">
         <v>123</v>
@@ -3433,7 +3441,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3474,7 +3482,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3501,7 +3509,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:21" ht="14.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -3542,7 +3550,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3579,7 +3587,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3621,7 +3629,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -3663,7 +3671,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3700,7 +3708,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -3776,7 +3784,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3856,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -3883,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -3913,7 +3921,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3976,7 +3984,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4040,7 +4048,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4080,7 +4088,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4131,7 +4139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -4150,7 +4158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1">
+    <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>60</v>
@@ -4176,7 +4184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4185,7 +4193,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4219,7 +4227,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>132</v>
@@ -4251,7 +4259,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4269,7 +4277,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4278,7 +4286,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4287,16 +4295,16 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
-      <c r="N32" s="11">
-        <f>[1]!WSD($B26,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="14.25">
+      <c r="N32" s="11" t="str">
+        <f>[1]!WSD($B32,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>#NA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4333,7 +4341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4359,7 +4367,7 @@
       <c r="O34" s="36"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4396,7 +4404,7 @@
       <c r="O35" s="36"/>
       <c r="P35" s="24"/>
     </row>
-    <row r="36" spans="1:16" ht="15" thickBot="1">
+    <row r="36" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>55</v>
@@ -4430,7 +4438,7 @@
       <c r="O36" s="36"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -4462,7 +4470,7 @@
       <c r="O37" s="36"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>42</v>
       </c>
@@ -4491,7 +4499,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="24"/>
     </row>
-    <row r="39" spans="1:16" ht="14.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>43</v>
       </c>
@@ -4524,7 +4532,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="24"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>36</v>
       </c>
@@ -4560,7 +4568,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>37</v>
       </c>
@@ -4596,7 +4604,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
         <v>35</v>
       </c>
@@ -4636,7 +4644,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>32</v>
       </c>
@@ -4672,7 +4680,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
         <v>38</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>39</v>
@@ -4749,7 +4757,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>40</v>
@@ -4785,7 +4793,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="24"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -4821,7 +4829,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="24"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4852,7 +4860,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16" ht="14.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>40</v>
@@ -4890,7 +4898,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="24"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -4921,7 +4929,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
@@ -4951,7 +4959,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
@@ -4978,7 +4986,7 @@
       <c r="O52" s="36"/>
       <c r="P52" s="24"/>
     </row>
-    <row r="53" spans="1:16" ht="14.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
@@ -5028,7 +5036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="14.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>46</v>
       </c>
@@ -5056,7 +5064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="14.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="14.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -5107,7 +5115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="14.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
@@ -5133,7 +5141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
@@ -5188,7 +5196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="14.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
@@ -5216,7 +5224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>49</v>
       </c>
@@ -5245,7 +5253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
@@ -5271,7 +5279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
@@ -5299,7 +5307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="14.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>53</v>
       </c>
@@ -5324,7 +5332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
@@ -5351,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
@@ -5377,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5402,7 +5410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>56</v>
@@ -5435,7 +5443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -5477,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
@@ -5514,7 +5522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>42</v>
@@ -5561,7 +5569,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -5608,7 +5616,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>19</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
@@ -5698,7 +5706,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>59</v>
       </c>
@@ -5742,7 +5750,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
         <v>19</v>
       </c>
@@ -5788,7 +5796,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" thickBot="1">
+    <row r="78" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>89</v>
@@ -5835,7 +5843,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="14.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -5882,7 +5890,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="14.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>92</v>
       </c>
@@ -5926,7 +5934,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="14.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>93</v>
       </c>
@@ -5972,7 +5980,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="14.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>94</v>
       </c>
@@ -6016,7 +6024,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="14.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>95</v>
@@ -6054,7 +6062,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="14.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6101,7 +6109,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="14.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
@@ -6145,7 +6153,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="14.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>98</v>
       </c>
@@ -6189,7 +6197,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="14.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>96</v>
@@ -6236,7 +6244,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="14.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>107</v>
@@ -6283,7 +6291,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6332,7 +6340,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="14.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>101</v>
       </c>
@@ -6377,7 +6385,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="14.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>101</v>
       </c>
@@ -6422,7 +6430,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="14.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
@@ -6466,7 +6474,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="14.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>102</v>
       </c>
@@ -6510,7 +6518,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="14.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>103</v>
       </c>
@@ -6554,7 +6562,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="14.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>104</v>
       </c>
@@ -6598,7 +6606,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="14.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>105</v>
       </c>
@@ -6642,7 +6650,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="14.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>106</v>
@@ -6689,7 +6697,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="14.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -6737,7 +6745,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="14.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>32</v>
       </c>
@@ -6782,7 +6790,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="14.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>60</v>
       </c>
@@ -6829,7 +6837,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="14.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>108</v>
       </c>
@@ -6865,7 +6873,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="14.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>109</v>
       </c>
@@ -6910,7 +6918,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="14.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>110</v>
       </c>
@@ -6955,7 +6963,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="14.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>111</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="14.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>112</v>
       </c>
@@ -7044,7 +7052,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="14.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>114</v>
       </c>
@@ -7089,7 +7097,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="14.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>116</v>
       </c>
@@ -7134,7 +7142,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="14.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
@@ -7178,7 +7186,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="14.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>120</v>
@@ -7225,7 +7233,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="14.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7275,7 +7283,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="14.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>129</v>
       </c>
@@ -7311,7 +7319,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="14.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>130</v>
       </c>
@@ -7347,7 +7355,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="14.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>131</v>
       </c>
@@ -7383,7 +7391,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="14.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>133</v>
       </c>
@@ -7419,7 +7427,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="14.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>137</v>
       </c>
@@ -7439,11 +7447,14 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="K115" s="30"/>
-      <c r="N115" s="11"/>
+      <c r="N115" s="11">
+        <f>[1]!WSD($B115,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>300</v>
+      </c>
       <c r="O115" s="53"/>
       <c r="P115" s="24"/>
     </row>
-    <row r="116" spans="1:16" ht="14.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>138</v>
       </c>
@@ -7463,11 +7474,14 @@
         <v>1.4E-2</v>
       </c>
       <c r="K116" s="30"/>
-      <c r="N116" s="11"/>
+      <c r="N116" s="11">
+        <f>[1]!WSD($B116,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>300</v>
+      </c>
       <c r="O116" s="53"/>
       <c r="P116" s="24"/>
     </row>
-    <row r="117" spans="1:16" ht="14.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>134</v>
       </c>
@@ -7503,7 +7517,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="14.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>135</v>
       </c>
@@ -7548,7 +7562,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" thickBot="1">
+    <row r="119" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>136</v>
@@ -7590,1518 +7604,1677 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="1">
+        <v>13</v>
+      </c>
+      <c r="D120" s="1">
+        <v>104300</v>
+      </c>
+      <c r="E120" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F120" s="40">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G120" s="31">
+        <f>4.1%*0.5</f>
+        <v>2.0499999999999997E-2</v>
+      </c>
       <c r="K120" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
+        <f>IF(H120="","",C120*(H120-D120)*N120)</f>
+        <v/>
+      </c>
+      <c r="N120" s="11">
+        <f>[1]!WSD($B120,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>1</v>
+      </c>
+      <c r="O120" s="53">
+        <v>9777008</v>
+      </c>
+      <c r="P120" s="24">
+        <f t="shared" ref="P120:P123" si="49">O120*G120/(D120*N120*0.15)</f>
+        <v>12.811036369447105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="1">
+        <v>9</v>
+      </c>
+      <c r="D121" s="1">
+        <v>26205</v>
+      </c>
+      <c r="E121" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F121" s="40">
+        <v>0.88958333333333339</v>
+      </c>
+      <c r="G121" s="31">
+        <f>3.6%*0.5</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
       <c r="K121" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="N121" s="11">
+        <f>[1]!WSD($B121,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O121" s="53">
+        <v>9777009</v>
+      </c>
+      <c r="P121" s="24">
+        <f t="shared" si="49"/>
+        <v>8.9543299370349168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" s="1">
+        <v>9</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2918</v>
+      </c>
+      <c r="E122" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F122" s="40">
+        <v>0.88958333333333339</v>
+      </c>
+      <c r="G122" s="31">
+        <f>1.1%*1/3</f>
+        <v>3.666666666666667E-3</v>
+      </c>
       <c r="K122" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="K123" s="30" t="str">
+      <c r="N122" s="11">
+        <f>[1]!WSD($B122,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O122" s="53">
+        <v>9777010</v>
+      </c>
+      <c r="P122" s="24">
+        <f t="shared" si="49"/>
+        <v>8.1903213768943726</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="1">
+        <v>14</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1295</v>
+      </c>
+      <c r="E123" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F123" s="40">
+        <v>0.88958333333333339</v>
+      </c>
+      <c r="G123" s="31">
+        <f>3.3%*0.5</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1292.5</v>
+      </c>
+      <c r="I123" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J123" s="40">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="K123" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+        <v>-2100</v>
+      </c>
+      <c r="N123" s="11">
+        <f>[1]!WSD($B123,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="O123" s="53">
+        <v>9777011</v>
+      </c>
+      <c r="P123" s="24">
+        <f t="shared" si="49"/>
+        <v>13.841328314028315</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D124" s="1">
+        <v>53220</v>
+      </c>
+      <c r="E124" s="2">
+        <v>43126</v>
+      </c>
+      <c r="F124" s="40">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="G124" s="31">
+        <f>1.9%*1/2</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="K124" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="N124" s="11">
+        <f>[1]!WSD($B124,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O124" s="53">
+        <v>9777012</v>
+      </c>
+      <c r="P124" s="24">
+        <f t="shared" ref="P124" si="50">O124*G124/(D124*N124*0.15)</f>
+        <v>2.3269851935362644</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K125" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K126" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K127" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K128" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="11:11">
+    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K129" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="11:11">
+    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K130" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="11:11">
+    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K131" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="11:11">
+    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K132" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="11:11">
+    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K133" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="11:11">
+    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K134" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="11:11">
+    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K135" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="11:11">
+    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K136" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="11:11">
+    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K137" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="11:11">
+    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K138" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="11:11">
+    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K139" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="11:11">
+    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K140" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="11:11">
+    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K141" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="11:11">
+    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K142" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="11:11">
+    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K143" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="11:11">
+    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K144" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="11:11">
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K145" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="11:11">
+    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K146" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="11:11">
+    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K147" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="11:11">
+    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K148" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="11:11">
+    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K149" s="30" t="str">
-        <f t="shared" ref="K149:K212" si="49">IF(H149="","",C149*(H149-D149)*N149)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11">
+        <f t="shared" ref="K149:K212" si="51">IF(H149="","",C149*(H149-D149)*N149)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K150" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K151" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K152" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K153" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K154" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K155" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K156" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K157" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K158" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K159" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K160" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K161" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K162" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K163" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K164" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K165" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K166" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K167" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K168" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K169" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K170" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K171" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K172" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K173" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K174" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K175" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K176" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K177" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K178" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K179" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K180" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K181" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K182" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K183" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K184" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K185" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K186" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K187" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K188" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K189" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K190" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K191" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K192" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K193" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K194" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K195" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K196" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K197" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K198" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K199" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K200" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K201" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K202" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K203" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K204" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K205" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K206" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K207" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K208" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K209" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K210" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K211" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K212" s="30" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K213" s="30" t="str">
-        <f t="shared" ref="K213:K276" si="50">IF(H213="","",C213*(H213-D213)*N213)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11">
+        <f t="shared" ref="K213:K276" si="52">IF(H213="","",C213*(H213-D213)*N213)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K214" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K215" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K216" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K217" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K218" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K219" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K220" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K221" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K222" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K223" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K224" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K225" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K226" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K227" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K228" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K229" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K230" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K231" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K232" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K233" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K234" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K235" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K236" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K237" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K238" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K239" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K240" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K241" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K242" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K243" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K244" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K245" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K246" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K247" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K248" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K249" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K250" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K251" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K252" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K253" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K254" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K255" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K256" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K257" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K258" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K259" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K260" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K261" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K262" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K263" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K264" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K265" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K266" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K267" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K268" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K269" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K270" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K271" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K272" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K273" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K274" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K275" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K276" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="11:11">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K277" s="30" t="str">
-        <f t="shared" ref="K277:K340" si="51">IF(H277="","",C277*(H277-D277)*N277)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="11:11">
+        <f t="shared" ref="K277:K340" si="53">IF(H277="","",C277*(H277-D277)*N277)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K278" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K279" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K280" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K281" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K282" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K283" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K284" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K285" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K286" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K287" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K288" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K289" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K290" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K291" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K292" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K293" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K294" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K295" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K296" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K297" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K298" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K299" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K300" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K301" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K302" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K303" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K304" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K305" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K306" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K307" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K308" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K309" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K310" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K311" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K312" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K313" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K314" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K315" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K316" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K317" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K318" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K319" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K320" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K321" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K322" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K323" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K324" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K325" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K326" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K327" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K328" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K329" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K330" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K331" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K332" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K333" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K334" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K335" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K336" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K337" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K338" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K339" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K340" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="11:11">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K341" s="30" t="str">
-        <f t="shared" ref="K341:K371" si="52">IF(H341="","",C341*(H341-D341)*N341)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="11:11">
+        <f t="shared" ref="K341:K371" si="54">IF(H341="","",C341*(H341-D341)*N341)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K342" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K343" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K344" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K345" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K346" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K347" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K348" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K349" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K350" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K351" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K352" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K353" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K354" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K355" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K356" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K357" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K358" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K359" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K360" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K361" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K362" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K363" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K364" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K365" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K366" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K367" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K368" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K369" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K370" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="11:11">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K371" s="30" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
     </row>
@@ -9121,13 +9294,13 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9160,7 +9333,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -9192,7 +9365,7 @@
         <v>13770</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
@@ -9224,7 +9397,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -9256,7 +9429,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
@@ -9288,7 +9461,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -9320,7 +9493,7 @@
         <v>-20520</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -9352,7 +9525,7 @@
         <v>-4720</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -9384,7 +9557,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -9410,7 +9583,7 @@
         <v>71820.000000000029</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>104</v>
       </c>
@@ -9442,7 +9615,7 @@
         <v>-11700</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>101</v>
       </c>
@@ -9475,7 +9648,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>99</v>
       </c>
@@ -9507,7 +9680,7 @@
         <v>-9010</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
@@ -9539,7 +9712,7 @@
         <v>3210.9999999999764</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -9571,7 +9744,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
@@ -9603,7 +9776,7 @@
         <v>-4200</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -9635,7 +9808,7 @@
         <v>-11109.960000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -9667,7 +9840,7 @@
         <v>-13020</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -9699,7 +9872,7 @@
         <v>-17160</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -9731,7 +9904,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -9764,7 +9937,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
@@ -9796,7 +9969,7 @@
         <v>-2760</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>103</v>
       </c>
@@ -9828,7 +10001,7 @@
         <v>-4060</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>96</v>
       </c>
@@ -9860,7 +10033,7 @@
         <v>-7280</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>96</v>
       </c>
@@ -9892,7 +10065,7 @@
         <v>-7665</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -9924,7 +10097,7 @@
         <v>15340</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -9956,7 +10129,7 @@
         <v>-6720</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -9988,7 +10161,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -10020,7 +10193,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
@@ -10052,7 +10225,7 @@
         <v>-5890.49999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
@@ -10084,7 +10257,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>92</v>
       </c>
@@ -10116,7 +10289,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -10167,17 +10340,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10202,7 +10375,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -10225,7 +10398,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -10245,7 +10418,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -10265,7 +10438,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -10288,7 +10461,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -10311,7 +10484,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -10331,7 +10504,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -10351,7 +10524,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -10374,7 +10547,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -10397,7 +10570,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -10417,7 +10590,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -10437,7 +10610,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -10457,7 +10630,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>30</v>
@@ -10495,15 +10668,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -10535,7 +10708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -10565,7 +10738,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -10595,7 +10768,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -10625,7 +10798,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -10655,7 +10828,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -10685,7 +10858,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -10715,7 +10888,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -10745,7 +10918,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -10775,7 +10948,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -10805,7 +10978,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -10835,7 +11008,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -10865,7 +11038,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -10892,7 +11065,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -10919,7 +11092,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -10946,7 +11119,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -10973,7 +11146,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -11000,7 +11173,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -11027,7 +11200,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -11054,7 +11227,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -11081,7 +11254,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -11108,7 +11281,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -11135,7 +11308,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -11162,7 +11335,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -11189,7 +11362,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -11216,7 +11389,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -11243,7 +11416,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -11270,7 +11443,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -11297,7 +11470,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -11324,7 +11497,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -11351,7 +11524,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -11378,7 +11551,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -11405,7 +11578,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -11432,7 +11605,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -11459,7 +11632,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -11486,7 +11659,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -11513,7 +11686,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -11540,7 +11713,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -11567,7 +11740,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -11594,7 +11767,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -11621,7 +11794,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -11648,7 +11821,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -11675,7 +11848,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -11702,7 +11875,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -11729,7 +11902,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -11756,31 +11929,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/模拟盘/SimulationTrading.xlsx
+++ b/模拟盘/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,13 +569,41 @@
   </si>
   <si>
     <t>BU1806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -584,7 +612,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,7 +906,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -892,6 +920,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1094,11 +1123,17 @@
                 <c:pt idx="23">
                   <c:v>0.97964110000000004</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97581989999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98014959999999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1113,11 +1148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="260835296"/>
-        <c:axId val="262702640"/>
+        <c:axId val="276485088"/>
+        <c:axId val="276485648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="260835296"/>
+        <c:axId val="276485088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,14 +1195,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262702640"/>
+        <c:crossAx val="276485648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="262702640"/>
+        <c:axId val="276485648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1253,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260835296"/>
+        <c:crossAx val="276485088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1268,7 +1303,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1345,7 +1380,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -1360,11 +1395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="262704880"/>
-        <c:axId val="262705440"/>
+        <c:axId val="276487888"/>
+        <c:axId val="276488448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="262704880"/>
+        <c:axId val="276487888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,14 +1442,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262705440"/>
+        <c:crossAx val="276488448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="262705440"/>
+        <c:axId val="276488448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +1500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262704880"/>
+        <c:crossAx val="276487888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2646,7 +2681,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,23 +2701,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,22 +3024,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" customWidth="1"/>
+    <col min="8" max="9" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3016,11 +3051,11 @@
       </c>
       <c r="E1" s="7">
         <f>COUNTA(C2:C9986)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3036,10 +3071,10 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!Q1/成交记录!P1</f>
-        <v>0.23655913978494625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.22115384615384615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3055,10 +3090,10 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!S1/成交记录!T1</f>
-        <v>0.78979603710160129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.73994123454614091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3070,85 +3105,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3160,7 +3195,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3168,11 +3203,11 @@
         <v>9743676</v>
       </c>
       <c r="C18" s="15">
-        <f t="shared" ref="C18:C25" si="0">B18/$B$2</f>
+        <f t="shared" ref="C18:C31" si="0">B18/$B$2</f>
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3184,7 +3219,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3196,7 +3231,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3208,7 +3243,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3220,7 +3255,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3232,7 +3267,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3244,7 +3279,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3256,37 +3291,53 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="55">
+        <v>9758199</v>
+      </c>
+      <c r="C26" s="56">
+        <f t="shared" si="0"/>
+        <v>0.97581989999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="39">
+        <v>9801496</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.98014959999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
+      <c r="C31" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3301,30 +3352,30 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
+      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="1.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.875" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3367,27 +3418,27 @@
       <c r="O1" s="13"/>
       <c r="P1" s="10">
         <f>COUNT(K2:K9988)</f>
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="13">
         <f>COUNTIF(K2:K9988,"&gt;0")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R1" s="13">
         <f>COUNTIF(K2:K9988,"&lt;0")</f>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="S1" s="13">
         <f>SUMIF(K2:K9988,"&gt;0")</f>
-        <v>434131.5</v>
+        <v>444331.5</v>
       </c>
       <c r="T1" s="13">
         <f>ABS(SUMIF(K2:K9988,"&lt;0"))</f>
-        <v>549675.46000000031</v>
+        <v>600495.66000000038</v>
       </c>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3410,17 +3461,17 @@
         <v>43096</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="30" t="e">
+      <c r="K2" s="30">
         <f>IF(H2="","",C2*(H2-D2)*N2)</f>
-        <v>#VALUE!</v>
+        <v>-13980.199999999995</v>
       </c>
       <c r="L2" s="1">
         <f>I2-$A$2</f>
         <v>2</v>
       </c>
-      <c r="N2" s="11" t="str">
+      <c r="N2" s="11">
         <f>[1]!WSD($B2,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>123</v>
@@ -3441,7 +3492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="14.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3482,7 +3533,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="14.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3509,7 +3560,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="14.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -3550,7 +3601,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3587,7 +3638,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="14.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3629,7 +3680,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="14.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -3671,7 +3722,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3708,7 +3759,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,7 +3794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="14.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -3784,7 +3835,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -3827,7 +3878,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3864,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -3891,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -3921,7 +3972,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="14.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3947,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="14.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3984,7 +4035,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4008,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4048,7 +4099,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4088,7 +4139,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="14.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -4110,7 +4161,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4139,7 +4190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="14.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -4158,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" thickBot="1">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>60</v>
@@ -4184,7 +4235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="14.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4193,7 +4244,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4227,7 +4278,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="14.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>132</v>
@@ -4259,7 +4310,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="14.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4268,7 +4319,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="14.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4277,7 +4328,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4286,7 +4337,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4295,7 +4346,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="14.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
@@ -4304,7 +4355,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4341,7 +4392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4367,7 +4418,7 @@
       <c r="O34" s="36"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4404,7 +4455,7 @@
       <c r="O35" s="36"/>
       <c r="P35" s="24"/>
     </row>
-    <row r="36" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" thickBot="1">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>55</v>
@@ -4438,7 +4489,7 @@
       <c r="O36" s="36"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="14.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -4470,7 +4521,7 @@
       <c r="O37" s="36"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="14.25">
       <c r="B38" s="37" t="s">
         <v>42</v>
       </c>
@@ -4499,7 +4550,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="24"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="14.25">
       <c r="B39" s="28" t="s">
         <v>43</v>
       </c>
@@ -4532,7 +4583,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="24"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.25">
       <c r="B40" s="37" t="s">
         <v>36</v>
       </c>
@@ -4568,7 +4619,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="14.25">
       <c r="B41" s="37" t="s">
         <v>37</v>
       </c>
@@ -4604,7 +4655,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="14.25">
       <c r="B42" s="37" t="s">
         <v>35</v>
       </c>
@@ -4644,7 +4695,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.25">
       <c r="B43" s="37" t="s">
         <v>32</v>
       </c>
@@ -4680,7 +4731,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.25">
       <c r="B44" s="37" t="s">
         <v>38</v>
       </c>
@@ -4716,7 +4767,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="14.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>39</v>
@@ -4757,7 +4808,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>40</v>
@@ -4793,7 +4844,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="24"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="14.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -4829,7 +4880,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="24"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="14.25">
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4860,7 +4911,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>40</v>
@@ -4898,7 +4949,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="24"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="14.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -4929,7 +4980,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="14.25">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
@@ -4959,7 +5010,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="14.25">
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
@@ -4986,7 +5037,7 @@
       <c r="O52" s="36"/>
       <c r="P52" s="24"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="14.25">
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
@@ -5011,7 +5062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="14.25">
       <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
@@ -5036,7 +5087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="14.25">
       <c r="B55" s="1" t="s">
         <v>46</v>
       </c>
@@ -5064,7 +5115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="14.25">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -5090,7 +5141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="14.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -5115,7 +5166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="14.25">
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
@@ -5141,7 +5192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="14.25">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
@@ -5167,7 +5218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="14.25">
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
@@ -5196,7 +5247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="14.25">
       <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
@@ -5224,7 +5275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="14.25">
       <c r="B62" s="1" t="s">
         <v>49</v>
       </c>
@@ -5253,7 +5304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="14.25">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
@@ -5279,7 +5330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="14.25">
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
@@ -5307,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="14.25">
       <c r="B65" s="1" t="s">
         <v>53</v>
       </c>
@@ -5332,7 +5383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="14.25">
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
@@ -5359,7 +5410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="14.25">
       <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
@@ -5385,7 +5436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="14.25">
       <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5410,7 +5461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="14.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>56</v>
@@ -5443,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="14.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -5485,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="14.25">
       <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
@@ -5522,7 +5573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="14.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>42</v>
@@ -5569,7 +5620,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="14.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -5616,7 +5667,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="14.25">
       <c r="B74" s="3" t="s">
         <v>19</v>
       </c>
@@ -5662,7 +5713,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="14.25">
       <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
@@ -5706,7 +5757,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="14.25">
       <c r="B76" s="1" t="s">
         <v>59</v>
       </c>
@@ -5750,7 +5801,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="14.25">
       <c r="B77" s="24" t="s">
         <v>19</v>
       </c>
@@ -5796,7 +5847,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15" thickBot="1">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>89</v>
@@ -5843,7 +5894,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="14.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -5890,7 +5941,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="14.25">
       <c r="B80" s="1" t="s">
         <v>92</v>
       </c>
@@ -5934,7 +5985,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="14.25">
       <c r="B81" s="24" t="s">
         <v>93</v>
       </c>
@@ -5980,7 +6031,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="14.25">
       <c r="B82" s="24" t="s">
         <v>94</v>
       </c>
@@ -6024,7 +6075,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="14.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>95</v>
@@ -6044,10 +6095,19 @@
       <c r="G83" s="32">
         <v>1.9E-2</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="H83" s="3">
+        <v>6367.2</v>
+      </c>
+      <c r="I83" s="33">
+        <v>43129</v>
+      </c>
+      <c r="J83" s="45">
+        <v>0.4375</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="15"/>
+        <v>10200</v>
+      </c>
       <c r="L83" s="3"/>
       <c r="M83" s="4"/>
       <c r="N83" s="11">
@@ -6062,7 +6122,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="14.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6109,7 +6169,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="14.25">
       <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
@@ -6153,7 +6213,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="14.25">
       <c r="B86" s="1" t="s">
         <v>98</v>
       </c>
@@ -6197,7 +6257,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="14.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>96</v>
@@ -6244,7 +6304,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="14.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>107</v>
@@ -6291,7 +6351,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="14.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6340,7 +6400,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="14.25">
       <c r="B90" s="1" t="s">
         <v>101</v>
       </c>
@@ -6385,7 +6445,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="14.25">
       <c r="B91" s="1" t="s">
         <v>101</v>
       </c>
@@ -6430,7 +6490,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="14.25">
       <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
@@ -6474,7 +6534,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="14.25">
       <c r="B93" s="1" t="s">
         <v>102</v>
       </c>
@@ -6518,7 +6578,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="14.25">
       <c r="B94" s="1" t="s">
         <v>103</v>
       </c>
@@ -6562,7 +6622,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="14.25">
       <c r="B95" s="1" t="s">
         <v>104</v>
       </c>
@@ -6606,7 +6666,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="14.25">
       <c r="B96" s="1" t="s">
         <v>105</v>
       </c>
@@ -6650,7 +6710,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="14.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>106</v>
@@ -6697,7 +6757,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="14.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -6745,7 +6805,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="14.25">
       <c r="B99" s="1" t="s">
         <v>32</v>
       </c>
@@ -6790,7 +6850,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="14.25">
       <c r="B100" s="3" t="s">
         <v>60</v>
       </c>
@@ -6837,7 +6897,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="14.25">
       <c r="B101" s="1" t="s">
         <v>108</v>
       </c>
@@ -6873,7 +6933,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="14.25">
       <c r="B102" s="1" t="s">
         <v>109</v>
       </c>
@@ -6918,7 +6978,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="14.25">
       <c r="B103" s="1" t="s">
         <v>110</v>
       </c>
@@ -6963,7 +7023,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="14.25">
       <c r="B104" s="1" t="s">
         <v>111</v>
       </c>
@@ -7008,7 +7068,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="14.25">
       <c r="B105" s="1" t="s">
         <v>112</v>
       </c>
@@ -7052,7 +7112,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="14.25">
       <c r="B106" s="1" t="s">
         <v>114</v>
       </c>
@@ -7097,7 +7157,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="14.25">
       <c r="B107" s="1" t="s">
         <v>116</v>
       </c>
@@ -7142,7 +7202,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="14.25">
       <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
@@ -7186,7 +7246,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="14.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>120</v>
@@ -7233,7 +7293,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="14.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7283,7 +7343,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="14.25">
       <c r="B111" s="1" t="s">
         <v>129</v>
       </c>
@@ -7319,7 +7379,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="14.25">
       <c r="B112" s="1" t="s">
         <v>130</v>
       </c>
@@ -7339,9 +7399,18 @@
         <f>0.2%*1/3</f>
         <v>6.6666666666666664E-4</v>
       </c>
-      <c r="K112" s="30" t="str">
+      <c r="H112" s="1">
+        <v>2843</v>
+      </c>
+      <c r="I112" s="2">
+        <v>43126</v>
+      </c>
+      <c r="J112" s="40">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="K112" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-80</v>
       </c>
       <c r="N112" s="11">
         <f>[1]!WSD($B112,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -7355,7 +7424,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="14.25">
       <c r="B113" s="1" t="s">
         <v>131</v>
       </c>
@@ -7375,9 +7444,18 @@
         <f>1.4%*1/3</f>
         <v>4.6666666666666662E-3</v>
       </c>
-      <c r="K113" s="30" t="str">
+      <c r="H113" s="1">
+        <v>2773</v>
+      </c>
+      <c r="I113" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J113" s="40">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="K113" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-1540</v>
       </c>
       <c r="N113" s="11">
         <f>[1]!WSD($B113,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -7391,7 +7469,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="14.25">
       <c r="B114" s="1" t="s">
         <v>133</v>
       </c>
@@ -7427,7 +7505,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="14.25">
       <c r="B115" s="1" t="s">
         <v>137</v>
       </c>
@@ -7446,7 +7524,19 @@
       <c r="G115" s="31">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K115" s="30"/>
+      <c r="H115" s="1">
+        <v>4347.2</v>
+      </c>
+      <c r="I115" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J115" s="40">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="K115" s="30">
+        <f t="shared" si="15"/>
+        <v>-17880.000000000109</v>
+      </c>
       <c r="N115" s="11">
         <f>[1]!WSD($B115,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>300</v>
@@ -7454,7 +7544,7 @@
       <c r="O115" s="53"/>
       <c r="P115" s="24"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="14.25">
       <c r="B116" s="1" t="s">
         <v>138</v>
       </c>
@@ -7473,7 +7563,19 @@
       <c r="G116" s="31">
         <v>1.4E-2</v>
       </c>
-      <c r="K116" s="30"/>
+      <c r="H116" s="1">
+        <v>3195</v>
+      </c>
+      <c r="I116" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J116" s="40">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="K116" s="30">
+        <f t="shared" si="15"/>
+        <v>-720.00000000002728</v>
+      </c>
       <c r="N116" s="11">
         <f>[1]!WSD($B116,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>300</v>
@@ -7481,7 +7583,7 @@
       <c r="O116" s="53"/>
       <c r="P116" s="24"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="14.25">
       <c r="B117" s="1" t="s">
         <v>134</v>
       </c>
@@ -7501,9 +7603,18 @@
         <f>2.3%*0.5</f>
         <v>1.15E-2</v>
       </c>
-      <c r="K117" s="30" t="str">
+      <c r="H117" s="1">
+        <v>14930</v>
+      </c>
+      <c r="I117" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J117" s="40">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="K117" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-6500</v>
       </c>
       <c r="N117" s="11">
         <f>[1]!WSD($B117,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -7517,7 +7628,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="14.25">
       <c r="B118" s="1" t="s">
         <v>135</v>
       </c>
@@ -7562,7 +7673,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="15" thickBot="1">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>136</v>
@@ -7583,12 +7694,18 @@
         <f>2%*1/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="H119" s="48"/>
-      <c r="I119" s="48"/>
-      <c r="J119" s="48"/>
-      <c r="K119" s="54" t="str">
+      <c r="H119" s="48">
+        <v>9980</v>
+      </c>
+      <c r="I119" s="52">
+        <v>43129</v>
+      </c>
+      <c r="J119" s="49">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="K119" s="54">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-1800</v>
       </c>
       <c r="L119" s="48"/>
       <c r="M119" s="51"/>
@@ -7604,7 +7721,7 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="14.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
@@ -7643,7 +7760,7 @@
         <v>12.811036369447105</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="14.25">
       <c r="B121" s="1" t="s">
         <v>139</v>
       </c>
@@ -7679,7 +7796,7 @@
         <v>8.9543299370349168</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="14.25">
       <c r="B122" s="1" t="s">
         <v>140</v>
       </c>
@@ -7715,7 +7832,7 @@
         <v>8.1903213768943726</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="14.25">
       <c r="B123" s="1" t="s">
         <v>60</v>
       </c>
@@ -7760,30 +7877,41 @@
         <v>13.841328314028315</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
+    <row r="124" spans="1:16" ht="14.25">
+      <c r="B124" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="3">
         <v>-3</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="3">
         <v>53220</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="33">
         <v>43126</v>
       </c>
-      <c r="F124" s="40">
+      <c r="F124" s="45">
         <v>0.9243055555555556</v>
       </c>
-      <c r="G124" s="31">
+      <c r="G124" s="32">
         <f>1.9%*1/2</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="K124" s="30" t="str">
+      <c r="H124" s="3">
+        <v>53640</v>
+      </c>
+      <c r="I124" s="33">
+        <v>43129</v>
+      </c>
+      <c r="J124" s="45">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="K124" s="28">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
+        <v>-6300</v>
+      </c>
+      <c r="L124" s="3"/>
+      <c r="M124" s="4"/>
       <c r="N124" s="11">
         <f>[1]!WSD($B124,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
@@ -7796,1485 +7924,1736 @@
         <v>2.3269851935362644</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="14.25">
+      <c r="B125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="1">
+        <v>22</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2305</v>
+      </c>
+      <c r="E125" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F125" s="40">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="G125" s="31">
+        <f>2.3%*1/3</f>
+        <v>7.6666666666666662E-3</v>
+      </c>
       <c r="K125" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N125" s="11">
+        <f>[1]!WSD($B125,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O125" s="53">
+        <v>9777013</v>
+      </c>
+      <c r="P125" s="24">
+        <f t="shared" ref="P125" si="51">O125*G125/(D125*N125*0.15)</f>
+        <v>21.679566064111832</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="14.25">
+      <c r="B126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" s="1">
+        <v>7</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2034.5</v>
+      </c>
+      <c r="E126" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F126" s="40">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="G126" s="31">
+        <f>4.3%*0.5</f>
+        <v>2.1499999999999998E-2</v>
+      </c>
       <c r="K126" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N126" s="11">
+        <f>[1]!WSD($B126,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="O126" s="53">
+        <v>9777014</v>
+      </c>
+      <c r="P126" s="24">
+        <f t="shared" ref="P126" si="52">O126*G126/(D126*N126*0.15)</f>
+        <v>6.8880413205537803</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="14.25">
+      <c r="B127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" s="1">
+        <v>22</v>
+      </c>
+      <c r="D127" s="1">
+        <v>3951</v>
+      </c>
+      <c r="E127" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F127" s="40">
+        <v>0.4375</v>
+      </c>
+      <c r="G127" s="31">
+        <f>2.6%*0.5</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
       <c r="K127" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N127" s="11">
+        <v>10</v>
+      </c>
+      <c r="O127" s="53">
+        <v>9777015</v>
+      </c>
+      <c r="P127" s="24">
+        <f t="shared" ref="P127" si="53">O127*G127/(D127*N127*0.15)</f>
+        <v>21.446249050873199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="14.25">
+      <c r="B128" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" s="1">
+        <v>22</v>
+      </c>
+      <c r="D128" s="1">
+        <v>3966</v>
+      </c>
+      <c r="E128" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F128" s="40">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G128" s="31">
+        <f>4%*1/3</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
       <c r="K128" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="N128" s="11">
+        <v>10</v>
+      </c>
+      <c r="O128" s="53">
+        <v>9777015</v>
+      </c>
+      <c r="P128" s="24">
+        <f t="shared" ref="P128" si="54">O128*G128/(D128*N128*0.15)</f>
+        <v>21.912960161371661</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" ht="14.25">
+      <c r="B129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="1">
+        <v>17</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2804</v>
+      </c>
+      <c r="E129" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F129" s="40">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G129" s="31">
+        <f>2.2%*1/3</f>
+        <v>7.3333333333333341E-3</v>
+      </c>
       <c r="K129" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K130" s="30" t="str">
+      <c r="N129" s="11">
+        <v>10</v>
+      </c>
+      <c r="O129" s="53">
+        <v>9777015</v>
+      </c>
+      <c r="P129" s="24">
+        <f t="shared" ref="P129" si="55">O129*G129/(D129*N129*0.15)</f>
+        <v>17.046626248216832</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="B130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>91.825000000000003</v>
+      </c>
+      <c r="E130" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F130" s="40">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G130" s="31">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H130" s="1">
+        <v>91.954999999999998</v>
+      </c>
+      <c r="I130" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J130" s="40">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="K130" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K131" s="30" t="str">
+        <v>-1299.9999999999545</v>
+      </c>
+      <c r="N130" s="12">
+        <v>10000</v>
+      </c>
+      <c r="O130" s="53">
+        <v>9777016</v>
+      </c>
+      <c r="P130" s="24">
+        <f t="shared" ref="P130" si="56">O130*G130/(D130*N130*0.15)</f>
+        <v>1.2776933514838007</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16">
+      <c r="B131" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C131" s="1">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1">
+        <v>6660</v>
+      </c>
+      <c r="E131" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F131" s="40">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="G131" s="31">
+        <f>1.8%*1/3</f>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="H131" s="1">
+        <v>6648</v>
+      </c>
+      <c r="I131" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J131" s="40">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="K131" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
+        <v>-720</v>
+      </c>
+      <c r="N131" s="12">
+        <v>5</v>
+      </c>
+      <c r="O131" s="53">
+        <v>9777016</v>
+      </c>
+      <c r="P131" s="24">
+        <f t="shared" ref="P131" si="57">O131*G131/(D131*N131*0.15)</f>
+        <v>11.744163363363366</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16">
+      <c r="B132" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132" s="1">
+        <v>12</v>
+      </c>
+      <c r="D132" s="1">
+        <v>6648</v>
+      </c>
+      <c r="E132" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F132" s="40">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G132" s="31">
+        <f>1.8%*1/3</f>
+        <v>6.000000000000001E-3</v>
+      </c>
       <c r="K132" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="N132" s="12">
+        <v>5</v>
+      </c>
+      <c r="O132" s="53">
+        <v>9777016</v>
+      </c>
+      <c r="P132" s="24">
+        <f t="shared" ref="P132" si="58">O132*G132/(D132*N132*0.15)</f>
+        <v>11.765362214199762</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16">
       <c r="K133" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16">
       <c r="K134" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16">
       <c r="K135" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16">
       <c r="K136" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16">
       <c r="K137" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16">
       <c r="K138" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16">
       <c r="K139" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16">
       <c r="K140" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16">
       <c r="K141" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16">
       <c r="K142" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16">
       <c r="K143" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16">
       <c r="K144" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="11:11">
       <c r="K145" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="11:11">
       <c r="K146" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="11:11">
       <c r="K147" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="11:11">
       <c r="K148" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="11:11">
       <c r="K149" s="30" t="str">
-        <f t="shared" ref="K149:K212" si="51">IF(H149="","",C149*(H149-D149)*N149)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K149:K212" si="59">IF(H149="","",C149*(H149-D149)*N149)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:11">
       <c r="K150" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:11">
       <c r="K151" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:11">
       <c r="K152" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:11">
       <c r="K153" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:11">
       <c r="K154" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:11">
       <c r="K155" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:11">
       <c r="K156" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:11">
       <c r="K157" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:11">
       <c r="K158" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:11">
       <c r="K159" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:11">
       <c r="K160" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11">
       <c r="K161" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11">
       <c r="K162" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11">
       <c r="K163" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11">
       <c r="K164" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11">
       <c r="K165" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11">
       <c r="K166" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11">
       <c r="K167" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11">
       <c r="K168" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11">
       <c r="K169" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11">
       <c r="K170" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11">
       <c r="K171" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11">
       <c r="K172" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11">
       <c r="K173" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11">
       <c r="K174" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11">
       <c r="K175" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11">
       <c r="K176" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11">
       <c r="K177" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11">
       <c r="K178" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11">
       <c r="K179" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11">
       <c r="K180" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11">
       <c r="K181" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11">
       <c r="K182" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11">
       <c r="K183" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11">
       <c r="K184" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11">
       <c r="K185" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11">
       <c r="K186" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11">
       <c r="K187" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11">
       <c r="K188" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11">
       <c r="K189" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11">
       <c r="K190" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11">
       <c r="K191" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:11">
       <c r="K192" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:11">
       <c r="K193" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:11">
       <c r="K194" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:11">
       <c r="K195" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:11">
       <c r="K196" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:11">
       <c r="K197" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:11">
       <c r="K198" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:11">
       <c r="K199" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:11">
       <c r="K200" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:11">
       <c r="K201" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:11">
       <c r="K202" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:11">
       <c r="K203" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:11">
       <c r="K204" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:11">
       <c r="K205" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:11">
       <c r="K206" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:11">
       <c r="K207" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:11">
       <c r="K208" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:11">
       <c r="K209" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:11">
       <c r="K210" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:11">
       <c r="K211" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:11">
       <c r="K212" s="30" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11">
       <c r="K213" s="30" t="str">
-        <f t="shared" ref="K213:K276" si="52">IF(H213="","",C213*(H213-D213)*N213)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K213:K276" si="60">IF(H213="","",C213*(H213-D213)*N213)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11">
       <c r="K214" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11">
       <c r="K215" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11">
       <c r="K216" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:11">
       <c r="K217" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:11">
       <c r="K218" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:11">
       <c r="K219" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:11">
       <c r="K220" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:11">
       <c r="K221" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:11">
       <c r="K222" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:11">
       <c r="K223" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:11">
       <c r="K224" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:11">
       <c r="K225" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:11">
       <c r="K226" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:11">
       <c r="K227" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:11">
       <c r="K228" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:11">
       <c r="K229" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:11">
       <c r="K230" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:11">
       <c r="K231" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:11">
       <c r="K232" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:11">
       <c r="K233" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:11">
       <c r="K234" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:11">
       <c r="K235" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:11">
       <c r="K236" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:11">
       <c r="K237" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="11:11">
       <c r="K238" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="11:11">
       <c r="K239" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="11:11">
       <c r="K240" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="11:11">
       <c r="K241" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="11:11">
       <c r="K242" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="11:11">
       <c r="K243" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="11:11">
       <c r="K244" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="11:11">
       <c r="K245" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="11:11">
       <c r="K246" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="11:11">
       <c r="K247" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="11:11">
       <c r="K248" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="11:11">
       <c r="K249" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="11:11">
       <c r="K250" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="11:11">
       <c r="K251" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="11:11">
       <c r="K252" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="11:11">
       <c r="K253" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="11:11">
       <c r="K254" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="11:11">
       <c r="K255" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="11:11">
       <c r="K256" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="11:11">
       <c r="K257" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="11:11">
       <c r="K258" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="11:11">
       <c r="K259" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="11:11">
       <c r="K260" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="11:11">
       <c r="K261" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="11:11">
       <c r="K262" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="11:11">
       <c r="K263" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="11:11">
       <c r="K264" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="11:11">
       <c r="K265" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="11:11">
       <c r="K266" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="11:11">
       <c r="K267" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="11:11">
       <c r="K268" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="11:11">
       <c r="K269" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="11:11">
       <c r="K270" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="11:11">
       <c r="K271" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="11:11">
       <c r="K272" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="11:11">
       <c r="K273" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="11:11">
       <c r="K274" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="11:11">
       <c r="K275" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="11:11">
       <c r="K276" s="30" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="11:11">
       <c r="K277" s="30" t="str">
-        <f t="shared" ref="K277:K340" si="53">IF(H277="","",C277*(H277-D277)*N277)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K277:K340" si="61">IF(H277="","",C277*(H277-D277)*N277)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="11:11">
       <c r="K278" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="11:11">
       <c r="K279" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="11:11">
       <c r="K280" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="11:11">
       <c r="K281" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="11:11">
       <c r="K282" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="11:11">
       <c r="K283" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="11:11">
       <c r="K284" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="11:11">
       <c r="K285" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="11:11">
       <c r="K286" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="11:11">
       <c r="K287" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="11:11">
       <c r="K288" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="11:11">
       <c r="K289" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="11:11">
       <c r="K290" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="11:11">
       <c r="K291" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="11:11">
       <c r="K292" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="11:11">
       <c r="K293" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="11:11">
       <c r="K294" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="11:11">
       <c r="K295" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="11:11">
       <c r="K296" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="11:11">
       <c r="K297" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="11:11">
       <c r="K298" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="11:11">
       <c r="K299" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="11:11">
       <c r="K300" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="11:11">
       <c r="K301" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="11:11">
       <c r="K302" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="11:11">
       <c r="K303" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="11:11">
       <c r="K304" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="11:11">
       <c r="K305" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="11:11">
       <c r="K306" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="11:11">
       <c r="K307" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="11:11">
       <c r="K308" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="11:11">
       <c r="K309" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="11:11">
       <c r="K310" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="11:11">
       <c r="K311" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="11:11">
       <c r="K312" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="11:11">
       <c r="K313" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="11:11">
       <c r="K314" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="11:11">
       <c r="K315" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="11:11">
       <c r="K316" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="11:11">
       <c r="K317" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="11:11">
       <c r="K318" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="11:11">
       <c r="K319" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="11:11">
       <c r="K320" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="11:11">
       <c r="K321" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="11:11">
       <c r="K322" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="11:11">
       <c r="K323" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="11:11">
       <c r="K324" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="11:11">
       <c r="K325" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="11:11">
       <c r="K326" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="11:11">
       <c r="K327" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="11:11">
       <c r="K328" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="11:11">
       <c r="K329" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="11:11">
       <c r="K330" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="11:11">
       <c r="K331" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="11:11">
       <c r="K332" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="11:11">
       <c r="K333" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="11:11">
       <c r="K334" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="11:11">
       <c r="K335" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="11:11">
       <c r="K336" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="11:11">
       <c r="K337" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="11:11">
       <c r="K338" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="11:11">
       <c r="K339" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="11:11">
       <c r="K340" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="11:11">
       <c r="K341" s="30" t="str">
-        <f t="shared" ref="K341:K371" si="54">IF(H341="","",C341*(H341-D341)*N341)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K341:K371" si="62">IF(H341="","",C341*(H341-D341)*N341)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="11:11">
       <c r="K342" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="11:11">
       <c r="K343" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="11:11">
       <c r="K344" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="11:11">
       <c r="K345" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="11:11">
       <c r="K346" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="11:11">
       <c r="K347" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="11:11">
       <c r="K348" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="11:11">
       <c r="K349" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="11:11">
       <c r="K350" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="11:11">
       <c r="K351" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="11:11">
       <c r="K352" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="11:11">
       <c r="K353" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="11:11">
       <c r="K354" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="11:11">
       <c r="K355" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="11:11">
       <c r="K356" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="11:11">
       <c r="K357" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="11:11">
       <c r="K358" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="11:11">
       <c r="K359" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="11:11">
       <c r="K360" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="11:11">
       <c r="K361" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="11:11">
       <c r="K362" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="11:11">
       <c r="K363" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="11:11">
       <c r="K364" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="11:11">
       <c r="K365" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="11:11">
       <c r="K366" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="11:11">
       <c r="K367" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="11:11">
       <c r="K368" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="11:11">
       <c r="K369" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="11:11">
       <c r="K370" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="11:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="11:11">
       <c r="K371" s="30" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
@@ -9294,13 +9673,13 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9333,7 +9712,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -9365,7 +9744,7 @@
         <v>13770</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
@@ -9397,7 +9776,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -9429,7 +9808,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
@@ -9461,7 +9840,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -9493,7 +9872,7 @@
         <v>-20520</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -9525,7 +9904,7 @@
         <v>-4720</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -9557,7 +9936,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -9583,7 +9962,7 @@
         <v>71820.000000000029</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="24" t="s">
         <v>104</v>
       </c>
@@ -9615,7 +9994,7 @@
         <v>-11700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="24" t="s">
         <v>101</v>
       </c>
@@ -9648,7 +10027,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="24" t="s">
         <v>99</v>
       </c>
@@ -9680,7 +10059,7 @@
         <v>-9010</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
@@ -9712,7 +10091,7 @@
         <v>3210.9999999999764</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -9744,7 +10123,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
@@ -9776,7 +10155,7 @@
         <v>-4200</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -9808,7 +10187,7 @@
         <v>-11109.960000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -9840,7 +10219,7 @@
         <v>-13020</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -9872,7 +10251,7 @@
         <v>-17160</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -9904,7 +10283,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -9937,7 +10316,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
@@ -9969,7 +10348,7 @@
         <v>-2760</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="24" t="s">
         <v>103</v>
       </c>
@@ -10001,7 +10380,7 @@
         <v>-4060</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="24" t="s">
         <v>96</v>
       </c>
@@ -10033,7 +10412,7 @@
         <v>-7280</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="24" t="s">
         <v>96</v>
       </c>
@@ -10065,7 +10444,7 @@
         <v>-7665</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -10097,7 +10476,7 @@
         <v>15340</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -10129,7 +10508,7 @@
         <v>-6720</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -10161,7 +10540,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -10193,7 +10572,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
@@ -10225,7 +10604,7 @@
         <v>-5890.49999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
@@ -10257,7 +10636,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="24" t="s">
         <v>92</v>
       </c>
@@ -10289,7 +10668,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -10340,17 +10719,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10375,7 +10754,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -10398,7 +10777,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -10418,7 +10797,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -10438,7 +10817,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -10461,7 +10840,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -10484,7 +10863,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -10504,7 +10883,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -10524,7 +10903,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -10547,7 +10926,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -10570,7 +10949,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -10590,7 +10969,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -10610,7 +10989,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -10630,7 +11009,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>30</v>
@@ -10668,15 +11047,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -10708,7 +11087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -10738,7 +11117,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -10768,7 +11147,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -10798,7 +11177,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -10828,7 +11207,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -10858,7 +11237,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -10888,7 +11267,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -10918,7 +11297,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -10948,7 +11327,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -10978,7 +11357,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -11008,7 +11387,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -11038,7 +11417,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -11065,7 +11444,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -11092,7 +11471,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -11119,7 +11498,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -11146,7 +11525,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -11173,7 +11552,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -11200,7 +11579,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -11227,7 +11606,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -11254,7 +11633,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -11281,7 +11660,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -11308,7 +11687,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -11335,7 +11714,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -11362,7 +11741,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -11389,7 +11768,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -11416,7 +11795,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -11443,7 +11822,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -11470,7 +11849,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -11497,7 +11876,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -11524,7 +11903,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -11551,7 +11930,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -11578,7 +11957,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -11605,7 +11984,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -11632,7 +12011,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -11659,7 +12038,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -11686,7 +12065,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -11713,7 +12092,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -11740,7 +12119,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -11767,7 +12146,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -11794,7 +12173,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -11821,7 +12200,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -11848,7 +12227,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -11875,7 +12254,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -11902,7 +12281,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -11929,31 +12308,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>
